--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaim\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaim\OneDrive\Desktop\Ballingo\Drafts-Ballingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC523D2-3DFC-49A2-A8A6-3D61CF601167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6381F68-335A-4686-9DF6-FF79E6743FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3765" yWindow="4830" windowWidth="21810" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="81" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
   <si>
     <t>Tarea</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>DB Structure Draft Version 1</t>
+  </si>
+  <si>
+    <t>Stutying Django</t>
   </si>
 </sst>
 </file>
@@ -343,25 +346,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
     </dxf>
@@ -379,132 +364,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
@@ -7567,7 +7426,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -8118,10 +7977,10 @@
     <dataField name="Suma de DURATION" fld="6" baseField="3" baseItem="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="54">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -8164,7 +8023,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
   <location ref="A1:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -8723,13 +8582,13 @@
     <dataField name="Suma de DURATION" fld="6" baseField="5" baseItem="2"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="51">
+    <format dxfId="5">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -8790,7 +8649,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
   <location ref="A1:G7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -9345,13 +9204,13 @@
     <dataField name="Suma de DURATION" fld="6" baseField="0" baseItem="264"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="48">
+    <format dxfId="2">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -9733,7 +9592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -9833,8 +9692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10208,11 +10067,11 @@
       </c>
       <c r="F17" s="27">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="G17" s="27">
         <f>IF(A17="","",SUMIF(TRACKING!D:D,A17,TRACKING!G:G))</f>
-        <v>0.625</v>
+        <v>0.95833333333333348</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -10267,15 +10126,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="27" t="str">
+      <c r="B20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="30">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D20" s="27">
         <f>IF(B20="","",SUMIF(TRACKING!E:E,B20,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E20" s="12" t="str">
+        <v>0.33333333333333348</v>
+      </c>
+      <c r="E20" s="12">
         <f>IF(AND(A20="",B20=""),"",COUNTIF(D$1:D20,""))</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="F20" s="27" t="str">
         <f t="shared" si="1"/>
@@ -13028,7 +12891,7 @@
   <dimension ref="A1:H500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13310,51 +13173,99 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="21" t="str">
+      <c r="A12" s="16">
+        <v>45698</v>
+      </c>
+      <c r="B12" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="21" t="str">
+      <c r="A13" s="16">
+        <v>45698</v>
+      </c>
+      <c r="B13" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="21" t="str">
+      <c r="A14" s="16">
+        <v>45698</v>
+      </c>
+      <c r="B14" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="21" t="str">
+      <c r="A15" s="16">
+        <v>45698</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">

--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaim\OneDrive\Desktop\Ballingo\Drafts-Ballingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6381F68-335A-4686-9DF6-FF79E6743FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BC1C48-25FD-41CB-8BF3-78681B41AAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="4830" windowWidth="21810" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="44">
   <si>
     <t>Tarea</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>Stutying Django</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Market Analysis</t>
+  </si>
+  <si>
+    <t>SWOT Analysis</t>
   </si>
 </sst>
 </file>
@@ -9693,7 +9702,7 @@
   <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9779,37 +9788,43 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="B4" s="9"/>
       <c r="C4" s="30"/>
       <c r="D4" s="27" t="str">
         <f>IF(B4="","",SUMIF(TRACKING!E:E,B4,TRACKING!G:G))</f>
         <v/>
       </c>
-      <c r="E4" s="12" t="str">
+      <c r="E4" s="12">
         <f>IF(AND(A4="",B4=""),"",COUNTIF(D$1:D4,""))</f>
-        <v/>
-      </c>
-      <c r="F4" s="27" t="str">
+        <v>2</v>
+      </c>
+      <c r="F4" s="27">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G4" s="27" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G4" s="27">
         <f>IF(A4="","",SUMIF(TRACKING!D:D,A4,TRACKING!G:G))</f>
-        <v/>
+        <v>0.33333333333333304</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="27" t="str">
+      <c r="B5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="30">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D5" s="27">
         <f>IF(B5="","",SUMIF(TRACKING!E:E,B5,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E5" s="12" t="str">
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E5" s="12">
         <f>IF(AND(A5="",B5=""),"",COUNTIF(D$1:D5,""))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F5" s="27" t="str">
         <f t="shared" si="1"/>
@@ -9822,15 +9837,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="27" t="str">
+      <c r="B6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="30">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D6" s="27">
         <f>IF(B6="","",SUMIF(TRACKING!E:E,B6,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E6" s="12" t="str">
+        <v>0.29166666666666641</v>
+      </c>
+      <c r="E6" s="12">
         <f>IF(AND(A6="",B6=""),"",COUNTIF(D$1:D6,""))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F6" s="27" t="str">
         <f t="shared" si="1"/>
@@ -10063,7 +10082,7 @@
       </c>
       <c r="E17" s="12">
         <f>IF(AND(A17="",B17=""),"",COUNTIF(D$1:D17,""))</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" s="27">
         <f t="shared" si="1"/>
@@ -10088,7 +10107,7 @@
       </c>
       <c r="E18" s="12">
         <f>IF(AND(A18="",B18=""),"",COUNTIF(D$1:D18,""))</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" s="27" t="str">
         <f t="shared" si="1"/>
@@ -10113,7 +10132,7 @@
       </c>
       <c r="E19" s="12">
         <f>IF(AND(A19="",B19=""),"",COUNTIF(D$1:D19,""))</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F19" s="27" t="str">
         <f t="shared" si="1"/>
@@ -10138,7 +10157,7 @@
       </c>
       <c r="E20" s="12">
         <f>IF(AND(A20="",B20=""),"",COUNTIF(D$1:D20,""))</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F20" s="27" t="str">
         <f t="shared" si="1"/>
@@ -12891,7 +12910,7 @@
   <dimension ref="A1:H500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13269,99 +13288,195 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="21" t="str">
+      <c r="A16" s="16">
+        <v>45699</v>
+      </c>
+      <c r="B16" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="21" t="str">
+      <c r="A17" s="16">
+        <v>45699</v>
+      </c>
+      <c r="B17" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="21" t="str">
+      <c r="A18" s="16">
+        <v>45699</v>
+      </c>
+      <c r="B18" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="21" t="str">
+      <c r="A19" s="16">
+        <v>45699</v>
+      </c>
+      <c r="B19" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="21" t="str">
+      <c r="A20" s="16">
+        <v>45699</v>
+      </c>
+      <c r="B20" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="21" t="str">
+      <c r="A21" s="16">
+        <v>45699</v>
+      </c>
+      <c r="B21" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="21" t="str">
+      <c r="A22" s="16">
+        <v>45699</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="21" t="str">
+      <c r="A23" s="16">
+        <v>45699</v>
+      </c>
+      <c r="B23" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">

--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaim\Desktop\Ballingo\Drafts-Ballingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3549B4-DB69-46F0-8806-CECA9F7B2B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150DB868-772B-4090-86A4-04E4677350F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="36" r:id="rId8"/>
+    <pivotCache cacheId="9" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="53">
   <si>
     <t>Tarea</t>
   </si>
@@ -188,6 +188,18 @@
   <si>
     <t>12-feb</t>
   </si>
+  <si>
+    <t>Skin Design</t>
+  </si>
+  <si>
+    <t>Frontend-First Steps</t>
+  </si>
+  <si>
+    <t>14-feb</t>
+  </si>
+  <si>
+    <t>15-feb</t>
+  </si>
 </sst>
 </file>
 
@@ -273,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -366,6 +378,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,9 +411,6 @@
       <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
     </dxf>
     <dxf>
@@ -412,6 +424,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
@@ -905,6 +920,19 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1013,7 +1041,7 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.39583333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
@@ -1022,7 +1050,7 @@
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.39583333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1081,10 +1109,10 @@
                   <c:v>0.39583333333333331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.72916666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.64583333333333326</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.39583333333333331</c:v>
@@ -1366,9 +1394,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$14</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$17</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>(en blanco)</c:v>
@@ -1377,21 +1405,30 @@
                     <c:v>Description</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>Frontend-First Steps</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>Mock - Ups</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>DB Structure Draft Version 1</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>Stutying Django</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>Backend-First Steps</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
+                    <c:v>Skin Design</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Frontend-First Steps</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>Market Analysis</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="10">
                     <c:v>SWOT Analysis</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1402,10 +1439,10 @@
                   <c:pt idx="1">
                     <c:v>R0 </c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
                     <c:v>Aplication</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="9">
                     <c:v>R1</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1414,10 +1451,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$14</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1425,21 +1462,30 @@
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.125</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>0.29166666666666663</c:v>
                 </c:pt>
               </c:numCache>
@@ -2050,9 +2096,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$10</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2074,15 +2120,21 @@
                 <c:pt idx="6">
                   <c:v>12-feb</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>14-feb</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$B$3:$B$10</c:f>
+              <c:f>HOURS_PERSON_DAY!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2100,6 +2152,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2127,9 +2182,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$10</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2151,15 +2206,21 @@
                 <c:pt idx="6">
                   <c:v>12-feb</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>14-feb</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$C$3:$C$10</c:f>
+              <c:f>HOURS_PERSON_DAY!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2174,6 +2235,12 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2201,9 +2268,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$10</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2225,15 +2292,21 @@
                 <c:pt idx="6">
                   <c:v>12-feb</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>14-feb</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$D$3:$D$10</c:f>
+              <c:f>HOURS_PERSON_DAY!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2248,6 +2321,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2275,9 +2351,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$10</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2299,15 +2375,21 @@
                 <c:pt idx="6">
                   <c:v>12-feb</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>14-feb</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$E$3:$E$10</c:f>
+              <c:f>HOURS_PERSON_DAY!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2325,6 +2407,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2352,9 +2437,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$10</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2376,15 +2461,21 @@
                 <c:pt idx="6">
                   <c:v>12-feb</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>14-feb</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$F$3:$F$10</c:f>
+              <c:f>HOURS_PERSON_DAY!$F$3:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2575,23 +2666,25 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Acaymo Granado Sánchez" refreshedDate="45700.851662731482" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Acaymo Granado Sánchez" refreshedDate="45703.97786550926" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="TRACKING"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="DATE" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-02-13T00:00:00" count="7">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-02-16T00:00:00" count="9">
         <d v="2025-02-04T00:00:00"/>
         <d v="2025-02-05T00:00:00"/>
         <d v="2025-02-06T00:00:00"/>
         <d v="2025-02-10T00:00:00"/>
         <d v="2025-02-11T00:00:00"/>
         <d v="2025-02-12T00:00:00"/>
+        <d v="2025-02-14T00:00:00"/>
+        <d v="2025-02-15T00:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup par="7" base="0">
-        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-02-13T00:00:00"/>
+        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-02-16T00:00:00"/>
         <groupItems count="368">
           <s v="(en blanco)"/>
           <s v="01-ene"/>
@@ -2960,17 +3053,18 @@
           <s v="29-dic"/>
           <s v="30-dic"/>
           <s v="31-dic"/>
-          <s v="&gt;13/02/2025"/>
+          <s v="&gt;16/02/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="STARTING TIME" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T10:00:00" maxDate="1899-12-30T21:00:00" count="6">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T10:00:00" maxDate="1899-12-30T21:00:00" count="7">
         <d v="1899-12-30T18:00:00"/>
         <d v="1899-12-30T16:00:00"/>
         <d v="1899-12-30T10:00:00"/>
         <d v="1899-12-30T17:00:00"/>
         <d v="1899-12-30T21:00:00"/>
+        <d v="1899-12-30T19:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup base="1">
@@ -3006,16 +3100,18 @@
       </fieldGroup>
     </cacheField>
     <cacheField name="FINAL TIME" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T13:00:00" maxDate="1899-12-30T23:00:00" count="6">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T13:00:00" maxDate="1899-12-30T23:30:00" count="8">
         <d v="1899-12-30T20:00:00"/>
         <d v="1899-12-30T19:00:00"/>
         <d v="1899-12-30T13:00:00"/>
         <d v="1899-12-30T18:30:00"/>
         <d v="1899-12-30T23:00:00"/>
+        <d v="1899-12-30T21:00:00"/>
+        <d v="1899-12-30T23:30:00"/>
         <m/>
       </sharedItems>
       <fieldGroup par="8" base="2">
-        <rangePr groupBy="minutes" startDate="1899-12-30T13:00:00" endDate="1899-12-30T23:00:00"/>
+        <rangePr groupBy="minutes" startDate="1899-12-30T13:00:00" endDate="1899-12-30T23:30:00"/>
         <groupItems count="62">
           <s v="(en blanco)"/>
           <s v=":00"/>
@@ -3091,7 +3187,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="SUBTASK" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
+      <sharedItems containsBlank="1" count="10">
         <s v="Description"/>
         <s v="Mock - Ups"/>
         <s v="DB Structure Draft Version 1"/>
@@ -3099,6 +3195,8 @@
         <s v="Market Analysis"/>
         <s v="SWOT Analysis"/>
         <s v="Backend-First Steps"/>
+        <s v="Skin Design"/>
+        <s v="Frontend-First Steps"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -3112,11 +3210,11 @@
       </sharedItems>
     </cacheField>
     <cacheField name="DURATION" numFmtId="164">
-      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="1899-12-30T01:00:00" maxDate="1899-12-30T03:00:00"/>
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="1899-12-30T01:00:00" maxDate="1899-12-30T07:30:00"/>
     </cacheField>
     <cacheField name="Meses" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-02-13T00:00:00"/>
+        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-02-16T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;04/02/2025"/>
           <s v="ene"/>
@@ -3131,13 +3229,13 @@
           <s v="oct"/>
           <s v="nov"/>
           <s v="dic"/>
-          <s v="&gt;13/02/2025"/>
+          <s v="&gt;16/02/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="Horas" numFmtId="0" databaseField="0">
       <fieldGroup base="2">
-        <rangePr groupBy="hours" startDate="1899-12-30T13:00:00" endDate="1899-12-30T23:00:00"/>
+        <rangePr groupBy="hours" startDate="1899-12-30T13:00:00" endDate="1899-12-30T23:30:00"/>
         <groupItems count="26">
           <s v="&lt;00/01/1900"/>
           <s v="0"/>
@@ -3417,4265 +3515,4265 @@
     <x v="6"/>
     <x v="5"/>
     <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="7"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <d v="1899-12-30T02:00:00"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <d v="1899-12-30T07:30:00"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="1"/>
+    <d v="1899-12-30T07:30:00"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="2"/>
+    <d v="1899-12-30T07:30:00"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="3"/>
+    <d v="1899-12-30T07:30:00"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="9"/>
     <x v="4"/>
     <m/>
   </r>
@@ -7683,8 +7781,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A1:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A1:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="369">
@@ -8137,8 +8235,8 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item x="7"/>
+      <items count="11">
+        <item x="9"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8146,6 +8244,8 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8206,7 +8306,7 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="13">
+  <rowItems count="16">
     <i>
       <x/>
     </i>
@@ -8218,6 +8318,9 @@
     </i>
     <i r="1">
       <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
     </i>
     <i>
       <x v="2"/>
@@ -8233,6 +8336,12 @@
     </i>
     <i r="1">
       <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
     </i>
     <i>
       <x v="3"/>
@@ -8254,10 +8363,10 @@
     <dataField name="Suma de DURATION" fld="6" baseField="3" baseItem="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="14">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -8300,7 +8409,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
   <location ref="A1:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -8863,17 +8972,17 @@
     <dataField name="Suma de DURATION" fld="6" baseField="5" baseItem="2"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="11">
+    <format dxfId="13">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="4">
+  <chartFormats count="5">
     <chartFormat chart="2" format="30" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -8919,6 +9028,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="2" format="43" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -8930,8 +9051,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
-  <location ref="A1:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
+  <location ref="A1:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
       <items count="369">
@@ -9441,7 +9562,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="10">
     <i>
       <x/>
     </i>
@@ -9462,6 +9583,12 @@
     </i>
     <i>
       <x v="43"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
     </i>
     <i t="grand">
       <x/>
@@ -9494,13 +9621,13 @@
     <dataField name="Suma de DURATION" fld="6" baseField="0" baseItem="264"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="8">
+    <format dxfId="10">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -9983,7 +10110,7 @@
   <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10367,11 +10494,11 @@
       </c>
       <c r="F17" s="27">
         <f t="shared" si="1"/>
-        <v>1.1666666666666665</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="G17" s="27">
         <f>IF(A17="","",SUMIF(TRACKING!D:D,A17,TRACKING!G:G))</f>
-        <v>1.4583333333333335</v>
+        <v>2.791666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -10476,15 +10603,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="27" t="str">
+      <c r="B22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="30">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D22" s="27">
         <f>IF(B22="","",SUMIF(TRACKING!E:E,B22,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E22" s="12" t="str">
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E22" s="12">
         <f>IF(AND(A22="",B22=""),"",COUNTIF(D$1:D22,""))</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="F22" s="27" t="str">
         <f t="shared" si="1"/>
@@ -10497,15 +10628,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="27" t="str">
+      <c r="B23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="30">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D23" s="27">
         <f>IF(B23="","",SUMIF(TRACKING!E:E,B23,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E23" s="12" t="str">
+        <v>1.25</v>
+      </c>
+      <c r="E23" s="12">
         <f>IF(AND(A23="",B23=""),"",COUNTIF(D$1:D23,""))</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="F23" s="27" t="str">
         <f t="shared" si="1"/>
@@ -13194,8 +13329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13861,63 +13996,123 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="21" t="str">
+      <c r="A28" s="16">
+        <v>45702</v>
+      </c>
+      <c r="B28" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C28" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="21" t="str">
+      <c r="A29" s="16">
+        <v>45703</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="21" t="str">
+      <c r="A30" s="16">
+        <v>45703</v>
+      </c>
+      <c r="B30" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="21" t="str">
+      <c r="A31" s="33">
+        <v>45703</v>
+      </c>
+      <c r="B31" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C31" s="17">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="21" t="str">
+      <c r="A32" s="16">
+        <v>45703</v>
+      </c>
+      <c r="B32" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C32" s="17">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -19589,8 +19784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19629,7 +19824,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="29">
-        <v>0.33333333333333331</v>
+        <v>0.95833333333333326</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -19641,87 +19836,102 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="29">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="29">
-        <v>1.4583333333333333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>36</v>
-      </c>
       <c r="B7" s="29">
-        <v>0.5</v>
+        <v>2.1666666666666665</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8" s="29">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="29">
-        <v>0.33333333333333331</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B11" s="29">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="29">
-        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B12" s="29">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B13" s="29">
-        <v>0.29166666666666663</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="29">
+        <v>0.29166666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="29">
-        <v>2.125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="29">
+        <v>3.458333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18"/>
     </row>
   </sheetData>
@@ -19741,7 +19951,7 @@
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -19797,7 +20007,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="29">
-        <v>8.3333333333333329E-2</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D3" s="29">
         <v>0.39583333333333331</v>
@@ -19806,7 +20016,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F3" s="29">
-        <v>0.5625</v>
+        <v>0.875</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -19820,13 +20030,13 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D4" s="29">
-        <v>0.33333333333333331</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E4" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F4" s="29">
-        <v>0.49999999999999994</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -19840,13 +20050,13 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D5" s="29">
-        <v>0.33333333333333331</v>
+        <v>0.64583333333333326</v>
       </c>
       <c r="E5" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F5" s="29">
-        <v>0.49999999999999994</v>
+        <v>0.8125</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -19857,7 +20067,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="29">
-        <v>8.3333333333333329E-2</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D6" s="29">
         <v>0.39583333333333331</v>
@@ -19866,7 +20076,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F6" s="29">
-        <v>0.5625</v>
+        <v>0.875</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -19897,16 +20107,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="29">
-        <v>0.33333333333333331</v>
+        <v>0.95833333333333326</v>
       </c>
       <c r="D8" s="29">
-        <v>1.4583333333333333</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="E8" s="29">
         <v>0.33333333333333331</v>
       </c>
       <c r="F8" s="29">
-        <v>2.125</v>
+        <v>3.4583333333333335</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -20161,42 +20371,57 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G10" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="29">
+        <v>0.3125</v>
+      </c>
+      <c r="C11" s="29">
+        <v>0.3125</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0.3125</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0.3125</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="29">
-        <v>0.5625</v>
-      </c>
-      <c r="C10" s="29">
-        <v>0.49999999999999994</v>
-      </c>
-      <c r="D10" s="29">
-        <v>0.49999999999999994</v>
-      </c>
-      <c r="E10" s="29">
-        <v>0.5625</v>
-      </c>
-      <c r="F10" s="29">
+      <c r="B12" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.8125</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="F12" s="29">
         <v>0</v>
       </c>
-      <c r="G10" s="29">
-        <v>2.125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
+      <c r="G12" s="29">
+        <v>3.4583333333333335</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13"/>

--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaim\Desktop\Ballingo\Drafts-Ballingo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santu\Desktop\tracking\Drafts-Ballingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150DB868-772B-4090-86A4-04E4677350F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7869BE93-A65A-47BE-A772-E0E113186B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="54">
   <si>
     <t>Tarea</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>15-feb</t>
+  </si>
+  <si>
+    <t>Backend developing DB functions</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1044,7 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.39583333333333331</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
@@ -1050,7 +1053,7 @@
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39583333333333331</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1106,7 +1109,7 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.39583333333333331</c:v>
+                  <c:v>0.91666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.72916666666666663</c:v>
@@ -1115,7 +1118,7 @@
                   <c:v>0.64583333333333326</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39583333333333331</c:v>
+                  <c:v>0.91666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,25 +1408,25 @@
                     <c:v>Description</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>Mock - Ups</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>DB Structure Draft Version 1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Stutying Django</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Backend-First Steps</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Skin Design</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
                     <c:v>Frontend-First Steps</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Mock - Ups</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>DB Structure Draft Version 1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Stutying Django</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Backend-First Steps</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Skin Design</c:v>
-                  </c:pt>
                   <c:pt idx="8">
-                    <c:v>Frontend-First Steps</c:v>
+                    <c:v>Backend developing DB functions</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>Market Analysis</c:v>
@@ -1439,7 +1442,7 @@
                   <c:pt idx="1">
                     <c:v>R0 </c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="2">
                     <c:v>Aplication</c:v>
                   </c:pt>
                   <c:pt idx="9">
@@ -1462,25 +1465,25 @@
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.625</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.625</c:v>
+                  <c:v>0.41666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4.1666666666666664E-2</c:v>
@@ -2154,7 +2157,7 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.52083333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2409,7 +2412,7 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.52083333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2666,7 +2669,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Acaymo Granado Sánchez" refreshedDate="45703.97786550926" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="santi sm" refreshedDate="45704.651120833332" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="TRACKING"/>
   </cacheSource>
@@ -3100,7 +3103,7 @@
       </fieldGroup>
     </cacheField>
     <cacheField name="FINAL TIME" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T13:00:00" maxDate="1899-12-30T23:30:00" count="8">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T13:00:00" maxDate="1899-12-30T23:30:00" count="9">
         <d v="1899-12-30T20:00:00"/>
         <d v="1899-12-30T19:00:00"/>
         <d v="1899-12-30T13:00:00"/>
@@ -3108,6 +3111,7 @@
         <d v="1899-12-30T23:00:00"/>
         <d v="1899-12-30T21:00:00"/>
         <d v="1899-12-30T23:30:00"/>
+        <d v="1899-12-30T15:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup par="8" base="2">
@@ -3187,7 +3191,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="SUBTASK" numFmtId="0">
-      <sharedItems containsBlank="1" count="10">
+      <sharedItems containsBlank="1" count="11">
         <s v="Description"/>
         <s v="Mock - Ups"/>
         <s v="DB Structure Draft Version 1"/>
@@ -3197,6 +3201,7 @@
         <s v="Backend-First Steps"/>
         <s v="Skin Design"/>
         <s v="Frontend-First Steps"/>
+        <s v="Backend developing DB functions"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -3542,7 +3547,7 @@
     <x v="7"/>
     <x v="1"/>
     <x v="6"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="8"/>
     <x v="2"/>
     <d v="1899-12-30T07:30:00"/>
@@ -3551,4229 +3556,4229 @@
     <x v="7"/>
     <x v="1"/>
     <x v="6"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="8"/>
     <x v="3"/>
     <d v="1899-12-30T07:30:00"/>
   </r>
   <r>
-    <x v="8"/>
-    <x v="6"/>
     <x v="7"/>
-    <x v="3"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
     <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
+    <x v="3"/>
+    <d v="1899-12-30T05:00:00"/>
+  </r>
+  <r>
     <x v="7"/>
-    <x v="3"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
     <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="7"/>
-    <x v="3"/>
-    <x v="9"/>
+    <x v="2"/>
+    <d v="1899-12-30T05:00:00"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="10"/>
     <x v="4"/>
     <m/>
   </r>
@@ -8235,8 +8240,8 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="11">
-        <item x="9"/>
+      <items count="12">
+        <item x="10"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8246,6 +8251,7 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="9"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8319,9 +8325,6 @@
     <i r="1">
       <x v="1"/>
     </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
     <i>
       <x v="2"/>
     </i>
@@ -8342,6 +8345,9 @@
     </i>
     <i r="1">
       <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
     </i>
     <i>
       <x v="3"/>
@@ -10110,7 +10116,7 @@
   <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10494,11 +10500,11 @@
       </c>
       <c r="F17" s="27">
         <f t="shared" si="1"/>
-        <v>1.6666666666666665</v>
+        <v>1.8333333333333333</v>
       </c>
       <c r="G17" s="27">
         <f>IF(A17="","",SUMIF(TRACKING!D:D,A17,TRACKING!G:G))</f>
-        <v>2.791666666666667</v>
+        <v>3.2083333333333339</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -10653,15 +10659,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="27" t="str">
+      <c r="B24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="30">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D24" s="27">
         <f>IF(B24="","",SUMIF(TRACKING!E:E,B24,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E24" s="12" t="str">
+        <v>0.41666666666666663</v>
+      </c>
+      <c r="E24" s="12">
         <f>IF(AND(A24="",B24=""),"",COUNTIF(D$1:D24,""))</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="F24" s="27" t="str">
         <f t="shared" si="1"/>
@@ -13329,8 +13339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14116,27 +14126,51 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="21" t="str">
+      <c r="A33" s="16">
+        <v>45703</v>
+      </c>
+      <c r="B33" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C33" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.20833333333333331</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="21" t="str">
+      <c r="A34" s="16">
+        <v>45703</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C34" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.20833333333333331</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -19785,12 +19819,12 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
@@ -19824,7 +19858,7 @@
         <v>32</v>
       </c>
       <c r="B4" s="29">
-        <v>0.95833333333333326</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -19836,67 +19870,67 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>50</v>
+      <c r="A6" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B6" s="29">
-        <v>0.625</v>
+        <v>3.208333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>35</v>
+      <c r="A7" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="B7" s="29">
-        <v>2.1666666666666665</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B8" s="29">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="29">
-        <v>0.125</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B10" s="29">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B11" s="29">
-        <v>0.5</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="29">
-        <v>8.3333333333333329E-2</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B13" s="29">
-        <v>0.625</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -19928,7 +19962,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="29">
-        <v>3.458333333333333</v>
+        <v>3.8749999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -19944,14 +19978,14 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -20007,16 +20041,16 @@
         <v>29</v>
       </c>
       <c r="C3" s="29">
-        <v>0.39583333333333331</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D3" s="29">
-        <v>0.39583333333333331</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E3" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F3" s="29">
-        <v>0.875</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -20067,16 +20101,16 @@
         <v>27</v>
       </c>
       <c r="C6" s="29">
-        <v>0.39583333333333331</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="D6" s="29">
-        <v>0.39583333333333331</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="E6" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F6" s="29">
-        <v>0.875</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -20107,16 +20141,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="29">
-        <v>0.95833333333333326</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D8" s="29">
-        <v>2.1666666666666665</v>
+        <v>3.208333333333333</v>
       </c>
       <c r="E8" s="29">
         <v>0.33333333333333331</v>
       </c>
       <c r="F8" s="29">
-        <v>3.4583333333333335</v>
+        <v>3.875</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -20385,7 +20419,7 @@
         <v>52</v>
       </c>
       <c r="B11" s="29">
-        <v>0.3125</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="C11" s="29">
         <v>0.3125</v>
@@ -20394,10 +20428,10 @@
         <v>0.3125</v>
       </c>
       <c r="E11" s="29">
-        <v>0.3125</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="G11" s="29">
-        <v>1.25</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -20405,7 +20439,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="29">
-        <v>0.875</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="C12" s="29">
         <v>0.89583333333333326</v>
@@ -20414,13 +20448,13 @@
         <v>0.8125</v>
       </c>
       <c r="E12" s="29">
-        <v>0.875</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="F12" s="29">
         <v>0</v>
       </c>
       <c r="G12" s="29">
-        <v>3.4583333333333335</v>
+        <v>3.8750000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">

--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santu\Desktop\tracking\Drafts-Ballingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7869BE93-A65A-47BE-A772-E0E113186B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CA7CA0-5086-45E5-BC72-0290AE214C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="56">
   <si>
     <t>Tarea</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>Backend developing DB functions</t>
+  </si>
+  <si>
+    <t>Frontend developing components</t>
+  </si>
+  <si>
+    <t>16-feb</t>
   </si>
 </sst>
 </file>
@@ -1109,16 +1115,16 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.91666666666666663</c:v>
+                  <c:v>1.1458333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.72916666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64583333333333326</c:v>
+                  <c:v>0.87499999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91666666666666663</c:v>
+                  <c:v>1.1458333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1397,9 +1403,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$17</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$18</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>(en blanco)</c:v>
@@ -1429,9 +1435,12 @@
                     <c:v>Backend developing DB functions</c:v>
                   </c:pt>
                   <c:pt idx="9">
+                    <c:v>Frontend developing components</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
                     <c:v>Market Analysis</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>SWOT Analysis</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1445,7 +1454,7 @@
                   <c:pt idx="2">
                     <c:v>Aplication</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>R1</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1454,10 +1463,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$17</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1486,9 +1495,12 @@
                   <c:v>0.41666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.6875</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0.29166666666666663</c:v>
                 </c:pt>
               </c:numCache>
@@ -2099,9 +2111,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$12</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2129,15 +2141,18 @@
                 <c:pt idx="8">
                   <c:v>15-feb</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>16-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$B$3:$B$12</c:f>
+              <c:f>HOURS_PERSON_DAY!$B$3:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2158,6 +2173,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.52083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22916666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2185,9 +2203,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$12</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2215,15 +2233,18 @@
                 <c:pt idx="8">
                   <c:v>15-feb</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>16-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$C$3:$C$12</c:f>
+              <c:f>HOURS_PERSON_DAY!$C$3:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2271,9 +2292,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$12</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2301,15 +2322,18 @@
                 <c:pt idx="8">
                   <c:v>15-feb</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>16-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$D$3:$D$12</c:f>
+              <c:f>HOURS_PERSON_DAY!$D$3:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2327,6 +2351,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22916666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2354,9 +2381,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$12</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2384,15 +2411,18 @@
                 <c:pt idx="8">
                   <c:v>15-feb</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>16-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$E$3:$E$12</c:f>
+              <c:f>HOURS_PERSON_DAY!$E$3:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2413,6 +2443,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.52083333333333337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22916666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2440,9 +2473,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$12</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2470,15 +2503,18 @@
                 <c:pt idx="8">
                   <c:v>15-feb</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>16-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$F$3:$F$12</c:f>
+              <c:f>HOURS_PERSON_DAY!$F$3:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2669,13 +2705,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="santi sm" refreshedDate="45704.651120833332" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="santi sm" refreshedDate="45704.931500694445" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="TRACKING"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="DATE" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-02-16T00:00:00" count="9">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-02-17T00:00:00" count="10">
         <d v="2025-02-04T00:00:00"/>
         <d v="2025-02-05T00:00:00"/>
         <d v="2025-02-06T00:00:00"/>
@@ -2684,10 +2720,11 @@
         <d v="2025-02-12T00:00:00"/>
         <d v="2025-02-14T00:00:00"/>
         <d v="2025-02-15T00:00:00"/>
+        <d v="2025-02-16T00:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup par="7" base="0">
-        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-02-16T00:00:00"/>
+        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-02-17T00:00:00"/>
         <groupItems count="368">
           <s v="(en blanco)"/>
           <s v="01-ene"/>
@@ -3056,18 +3093,19 @@
           <s v="29-dic"/>
           <s v="30-dic"/>
           <s v="31-dic"/>
-          <s v="&gt;16/02/2025"/>
+          <s v="&gt;17/02/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="STARTING TIME" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T10:00:00" maxDate="1899-12-30T21:00:00" count="7">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T10:00:00" maxDate="1899-12-30T21:00:00" count="8">
         <d v="1899-12-30T18:00:00"/>
         <d v="1899-12-30T16:00:00"/>
         <d v="1899-12-30T10:00:00"/>
         <d v="1899-12-30T17:00:00"/>
         <d v="1899-12-30T21:00:00"/>
         <d v="1899-12-30T19:00:00"/>
+        <d v="1899-12-30T16:30:00"/>
         <m/>
       </sharedItems>
       <fieldGroup base="1">
@@ -3103,7 +3141,7 @@
       </fieldGroup>
     </cacheField>
     <cacheField name="FINAL TIME" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T13:00:00" maxDate="1899-12-30T23:30:00" count="9">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T13:00:00" maxDate="1899-12-30T23:30:00" count="10">
         <d v="1899-12-30T20:00:00"/>
         <d v="1899-12-30T19:00:00"/>
         <d v="1899-12-30T13:00:00"/>
@@ -3112,6 +3150,7 @@
         <d v="1899-12-30T21:00:00"/>
         <d v="1899-12-30T23:30:00"/>
         <d v="1899-12-30T15:00:00"/>
+        <d v="1899-12-30T22:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup par="8" base="2">
@@ -3191,7 +3230,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="SUBTASK" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
+      <sharedItems containsBlank="1" count="12">
         <s v="Description"/>
         <s v="Mock - Ups"/>
         <s v="DB Structure Draft Version 1"/>
@@ -3202,6 +3241,7 @@
         <s v="Skin Design"/>
         <s v="Frontend-First Steps"/>
         <s v="Backend developing DB functions"/>
+        <s v="Frontend developing components"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -3219,7 +3259,7 @@
     </cacheField>
     <cacheField name="Meses" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-02-16T00:00:00"/>
+        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-02-17T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;04/02/2025"/>
           <s v="ene"/>
@@ -3234,7 +3274,7 @@
           <s v="oct"/>
           <s v="nov"/>
           <s v="dic"/>
-          <s v="&gt;16/02/2025"/>
+          <s v="&gt;17/02/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -3583,4202 +3623,4202 @@
     <x v="8"/>
     <x v="6"/>
     <x v="8"/>
-    <x v="3"/>
+    <x v="1"/>
     <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
+    <x v="0"/>
+    <d v="1899-12-30T05:30:00"/>
   </r>
   <r>
     <x v="8"/>
     <x v="6"/>
     <x v="8"/>
-    <x v="3"/>
+    <x v="1"/>
     <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
+    <x v="3"/>
+    <d v="1899-12-30T05:30:00"/>
   </r>
   <r>
     <x v="8"/>
     <x v="6"/>
     <x v="8"/>
-    <x v="3"/>
+    <x v="1"/>
     <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="6"/>
-    <x v="8"/>
-    <x v="3"/>
-    <x v="10"/>
+    <x v="2"/>
+    <d v="1899-12-30T05:30:00"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="11"/>
     <x v="4"/>
     <m/>
   </r>
@@ -7787,7 +7827,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A1:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A1:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="369">
@@ -8240,8 +8280,8 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="10"/>
+      <items count="13">
+        <item x="11"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8252,6 +8292,7 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8312,7 +8353,7 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="16">
+  <rowItems count="17">
     <i>
       <x/>
     </i>
@@ -8348,6 +8389,9 @@
     </i>
     <i r="1">
       <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
     </i>
     <i>
       <x v="3"/>
@@ -9058,7 +9102,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
-  <location ref="A1:G12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
       <items count="369">
@@ -9568,7 +9612,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="11">
     <i>
       <x/>
     </i>
@@ -9595,6 +9639,9 @@
     </i>
     <i>
       <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
     </i>
     <i t="grand">
       <x/>
@@ -10116,7 +10163,7 @@
   <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10500,11 +10547,11 @@
       </c>
       <c r="F17" s="27">
         <f t="shared" si="1"/>
-        <v>1.8333333333333333</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="G17" s="27">
         <f>IF(A17="","",SUMIF(TRACKING!D:D,A17,TRACKING!G:G))</f>
-        <v>3.2083333333333339</v>
+        <v>3.8958333333333335</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -10684,15 +10731,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="27" t="str">
+      <c r="B25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="D25" s="27">
         <f>IF(B25="","",SUMIF(TRACKING!E:E,B25,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E25" s="12" t="str">
+        <v>0.68749999999999989</v>
+      </c>
+      <c r="E25" s="12">
         <f>IF(AND(A25="",B25=""),"",COUNTIF(D$1:D25,""))</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="F25" s="27" t="str">
         <f t="shared" si="1"/>
@@ -13339,8 +13390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14174,39 +14225,75 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="21" t="str">
+      <c r="A35" s="16">
+        <v>45704</v>
+      </c>
+      <c r="B35" s="17">
+        <v>0.6875</v>
+      </c>
+      <c r="C35" s="17">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.22916666666666663</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="21" t="str">
+      <c r="A36" s="16">
+        <v>45704</v>
+      </c>
+      <c r="B36" s="17">
+        <v>0.6875</v>
+      </c>
+      <c r="C36" s="17">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.22916666666666663</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="21" t="str">
+      <c r="A37" s="16">
+        <v>45704</v>
+      </c>
+      <c r="B37" s="17">
+        <v>0.6875</v>
+      </c>
+      <c r="C37" s="17">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.22916666666666663</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -19818,13 +19905,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
@@ -19874,7 +19961,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="29">
-        <v>3.208333333333333</v>
+        <v>3.895833333333333</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -19934,39 +20021,44 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="29">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B15" s="29">
         <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="29">
-        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B17" s="29">
         <v>0.29166666666666663</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="29">
-        <v>3.8749999999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18"/>
+      <c r="B18" s="29">
+        <v>4.5625</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20044,13 +20136,13 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D3" s="29">
-        <v>0.91666666666666663</v>
+        <v>1.1458333333333333</v>
       </c>
       <c r="E3" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F3" s="29">
-        <v>1.0833333333333333</v>
+        <v>1.3124999999999998</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -20084,13 +20176,13 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D5" s="29">
-        <v>0.64583333333333326</v>
+        <v>0.87499999999999989</v>
       </c>
       <c r="E5" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F5" s="29">
-        <v>0.8125</v>
+        <v>1.0416666666666665</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -20104,13 +20196,13 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D6" s="29">
-        <v>0.91666666666666663</v>
+        <v>1.1458333333333333</v>
       </c>
       <c r="E6" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F6" s="29">
-        <v>1.0833333333333333</v>
+        <v>1.3124999999999998</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -20144,13 +20236,13 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D8" s="29">
-        <v>3.208333333333333</v>
+        <v>3.895833333333333</v>
       </c>
       <c r="E8" s="29">
         <v>0.33333333333333331</v>
       </c>
       <c r="F8" s="29">
-        <v>3.875</v>
+        <v>4.5624999999999991</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -20436,34 +20528,43 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="29">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="29">
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="C12" s="29">
+      <c r="B13" s="29">
+        <v>1.3125000000000002</v>
+      </c>
+      <c r="C13" s="29">
         <v>0.89583333333333326</v>
       </c>
-      <c r="D12" s="29">
-        <v>0.8125</v>
-      </c>
-      <c r="E12" s="29">
-        <v>1.0833333333333335</v>
-      </c>
-      <c r="F12" s="29">
+      <c r="D13" s="29">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1.3125000000000002</v>
+      </c>
+      <c r="F13" s="29">
         <v>0</v>
       </c>
-      <c r="G12" s="29">
-        <v>3.8750000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
+      <c r="G13" s="29">
+        <v>4.5625</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14"/>

--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santu\Desktop\tracking\Drafts-Ballingo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaim\OneDrive\Desktop\Ballingo\Drafts-Ballingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CA7CA0-5086-45E5-BC72-0290AE214C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068B9FB2-1329-4060-8653-182175E5A187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId8"/>
+    <pivotCache cacheId="27" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="61">
   <si>
     <t>Tarea</t>
   </si>
@@ -208,6 +208,21 @@
   </si>
   <si>
     <t>16-feb</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Stories</t>
+  </si>
+  <si>
+    <t>Fronted conecting routes</t>
+  </si>
+  <si>
+    <t>18-feb</t>
+  </si>
+  <si>
+    <t>19-feb</t>
   </si>
 </sst>
 </file>
@@ -394,7 +409,55 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="32">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="h:mm;@"/>
     </dxf>
@@ -942,6 +1005,19 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1115,16 +1191,16 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.1458333333333333</c:v>
+                  <c:v>1.3541666666666665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72916666666666663</c:v>
+                  <c:v>0.9375</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.87499999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1458333333333333</c:v>
+                  <c:v>1.3541666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1197,6 +1273,71 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CA67-4CD5-8765-3B16A8DBE802}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HOURS_PERSON_TASK!$F$1:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HOURS_PERSON_TASK!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acaymo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mauro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paula</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HOURS_PERSON_TASK!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>[h]:mm:ss;@</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5045-47A5-B84E-1B6D83EA3CF2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1403,9 +1544,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$18</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$21</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>(en blanco)</c:v>
@@ -1438,10 +1579,16 @@
                     <c:v>Frontend developing components</c:v>
                   </c:pt>
                   <c:pt idx="10">
+                    <c:v>Fronted conecting routes</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>Market Analysis</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>SWOT Analysis</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Stories</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1454,8 +1601,11 @@
                   <c:pt idx="2">
                     <c:v>Aplication</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>R1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>R2</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1463,10 +1613,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$18</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1498,10 +1648,16 @@
                   <c:v>0.6875</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>0.29166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2111,9 +2267,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$13</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2144,15 +2300,21 @@
                 <c:pt idx="9">
                   <c:v>16-feb</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>18-feb</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$B$3:$B$13</c:f>
+              <c:f>HOURS_PERSON_DAY!$B$3:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2176,6 +2338,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20833333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2203,9 +2371,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$13</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2236,15 +2404,21 @@
                 <c:pt idx="9">
                   <c:v>16-feb</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>18-feb</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$C$3:$C$13</c:f>
+              <c:f>HOURS_PERSON_DAY!$C$3:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2265,6 +2439,12 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20833333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,9 +2472,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$13</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2325,15 +2505,21 @@
                 <c:pt idx="9">
                   <c:v>16-feb</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>18-feb</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$D$3:$D$13</c:f>
+              <c:f>HOURS_PERSON_DAY!$D$3:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2354,6 +2540,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2381,9 +2570,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$13</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2414,15 +2603,21 @@
                 <c:pt idx="9">
                   <c:v>16-feb</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>18-feb</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$E$3:$E$13</c:f>
+              <c:f>HOURS_PERSON_DAY!$E$3:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2446,6 +2641,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.22916666666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20833333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2473,9 +2674,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$13</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2506,15 +2707,21 @@
                 <c:pt idx="9">
                   <c:v>16-feb</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>18-feb</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$F$3:$F$13</c:f>
+              <c:f>HOURS_PERSON_DAY!$F$3:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2705,13 +2912,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="santi sm" refreshedDate="45704.931500694445" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="acaoriginal YT" refreshedDate="45708.002067361114" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="TRACKING"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="DATE" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-02-17T00:00:00" count="10">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-02-20T00:00:00" count="12">
         <d v="2025-02-04T00:00:00"/>
         <d v="2025-02-05T00:00:00"/>
         <d v="2025-02-06T00:00:00"/>
@@ -2721,10 +2928,12 @@
         <d v="2025-02-14T00:00:00"/>
         <d v="2025-02-15T00:00:00"/>
         <d v="2025-02-16T00:00:00"/>
+        <d v="2025-02-18T00:00:00"/>
+        <d v="2025-02-19T00:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup par="7" base="0">
-        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-02-17T00:00:00"/>
+        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-02-20T00:00:00"/>
         <groupItems count="368">
           <s v="(en blanco)"/>
           <s v="01-ene"/>
@@ -3093,12 +3302,12 @@
           <s v="29-dic"/>
           <s v="30-dic"/>
           <s v="31-dic"/>
-          <s v="&gt;17/02/2025"/>
+          <s v="&gt;20/02/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="STARTING TIME" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T10:00:00" maxDate="1899-12-30T21:00:00" count="8">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T10:00:00" maxDate="1899-12-30T21:00:00" count="9">
         <d v="1899-12-30T18:00:00"/>
         <d v="1899-12-30T16:00:00"/>
         <d v="1899-12-30T10:00:00"/>
@@ -3106,6 +3315,7 @@
         <d v="1899-12-30T21:00:00"/>
         <d v="1899-12-30T19:00:00"/>
         <d v="1899-12-30T16:30:00"/>
+        <d v="1899-12-30T15:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup base="1">
@@ -3222,15 +3432,16 @@
       </fieldGroup>
     </cacheField>
     <cacheField name="TASK" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
+      <sharedItems containsBlank="1" count="5">
         <s v="R0 "/>
         <s v="Aplication"/>
         <s v="R1"/>
+        <s v="R2"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="SUBTASK" numFmtId="0">
-      <sharedItems containsBlank="1" count="12">
+      <sharedItems containsBlank="1" count="14">
         <s v="Description"/>
         <s v="Mock - Ups"/>
         <s v="DB Structure Draft Version 1"/>
@@ -3242,6 +3453,8 @@
         <s v="Frontend-First Steps"/>
         <s v="Backend developing DB functions"/>
         <s v="Frontend developing components"/>
+        <s v="Stories"/>
+        <s v="Fronted conecting routes"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -3259,7 +3472,7 @@
     </cacheField>
     <cacheField name="Meses" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-02-17T00:00:00"/>
+        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-02-20T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;04/02/2025"/>
           <s v="ene"/>
@@ -3274,7 +3487,7 @@
           <s v="oct"/>
           <s v="nov"/>
           <s v="dic"/>
-          <s v="&gt;17/02/2025"/>
+          <s v="&gt;20/02/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -3648,4177 +3861,4177 @@
   </r>
   <r>
     <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="0"/>
+    <d v="1899-12-30T02:00:00"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="1"/>
+    <d v="1899-12-30T02:00:00"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="2"/>
+    <d v="1899-12-30T02:00:00"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="11"/>
+    <x v="3"/>
+    <d v="1899-12-30T02:00:00"/>
+  </r>
+  <r>
+    <x v="10"/>
     <x v="7"/>
-    <x v="9"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="1"/>
+    <d v="1899-12-30T05:00:00"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="2"/>
+    <d v="1899-12-30T05:00:00"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="12"/>
     <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="7"/>
-    <x v="9"/>
-    <x v="3"/>
-    <x v="11"/>
+    <d v="1899-12-30T05:00:00"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="13"/>
     <x v="4"/>
     <m/>
   </r>
@@ -7826,8 +8039,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A1:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A1:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="369">
@@ -8271,17 +8484,18 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="3"/>
+      <items count="6">
+        <item x="4"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="11"/>
+      <items count="15">
+        <item x="13"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8293,6 +8507,8 @@
         <item x="8"/>
         <item x="9"/>
         <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8353,7 +8569,7 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="17">
+  <rowItems count="20">
     <i>
       <x/>
     </i>
@@ -8393,6 +8609,9 @@
     <i r="1">
       <x v="11"/>
     </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
     <i>
       <x v="3"/>
     </i>
@@ -8401,6 +8620,12 @@
     </i>
     <i r="1">
       <x v="6"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
     </i>
     <i t="grand">
       <x/>
@@ -8413,10 +8638,10 @@
     <dataField name="Suma de DURATION" fld="6" baseField="3" baseItem="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="15">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -8459,8 +8684,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
-  <location ref="A1:F8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
+  <location ref="A1:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="369">
@@ -8904,11 +9129,12 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="3"/>
+      <items count="6">
+        <item x="4"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9001,7 +9227,7 @@
   <colFields count="1">
     <field x="3"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="6">
     <i>
       <x/>
     </i>
@@ -9014,6 +9240,9 @@
     <i>
       <x v="3"/>
     </i>
+    <i>
+      <x v="4"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -9022,17 +9251,17 @@
     <dataField name="Suma de DURATION" fld="6" baseField="5" baseItem="2"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="13">
+    <format dxfId="29">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="5">
+  <chartFormats count="6">
     <chartFormat chart="2" format="30" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -9090,6 +9319,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="2" format="44" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -9101,8 +9342,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
-  <location ref="A1:G13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
+  <location ref="A1:G15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
       <items count="369">
@@ -9612,7 +9853,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="11">
+  <rowItems count="13">
     <i>
       <x/>
     </i>
@@ -9642,6 +9883,12 @@
     </i>
     <i>
       <x v="47"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
     </i>
     <i t="grand">
       <x/>
@@ -9674,13 +9921,13 @@
     <dataField name="Suma de DURATION" fld="6" baseField="0" baseItem="264"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="10">
+    <format dxfId="26">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -10062,7 +10309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -10163,7 +10410,7 @@
   <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10322,37 +10569,43 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="B7" s="9"/>
       <c r="C7" s="30"/>
       <c r="D7" s="27" t="str">
         <f>IF(B7="","",SUMIF(TRACKING!E:E,B7,TRACKING!G:G))</f>
         <v/>
       </c>
-      <c r="E7" s="12" t="str">
+      <c r="E7" s="12">
         <f>IF(AND(A7="",B7=""),"",COUNTIF(D$1:D7,""))</f>
-        <v/>
-      </c>
-      <c r="F7" s="27" t="str">
+        <v>3</v>
+      </c>
+      <c r="F7" s="27">
         <f>IF(A7="","",SUMIF(E:E,E7,C:C))</f>
-        <v/>
-      </c>
-      <c r="G7" s="27" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G7" s="27">
         <f>IF(A7="","",SUMIF(TRACKING!D:D,A7,TRACKING!G:G))</f>
-        <v/>
+        <v>0.33333333333333348</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="27" t="str">
+      <c r="B8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D8" s="27">
         <f>IF(B8="","",SUMIF(TRACKING!E:E,B8,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E8" s="12" t="str">
+        <v>0.33333333333333348</v>
+      </c>
+      <c r="E8" s="12">
         <f>IF(AND(A8="",B8=""),"",COUNTIF(D$1:D8,""))</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="F8" s="27" t="str">
         <f t="shared" si="1"/>
@@ -10543,15 +10796,15 @@
       </c>
       <c r="E17" s="12">
         <f>IF(AND(A17="",B17=""),"",COUNTIF(D$1:D17,""))</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="27">
         <f t="shared" si="1"/>
-        <v>2.083333333333333</v>
+        <v>2.458333333333333</v>
       </c>
       <c r="G17" s="27">
         <f>IF(A17="","",SUMIF(TRACKING!D:D,A17,TRACKING!G:G))</f>
-        <v>3.8958333333333335</v>
+        <v>4.520833333333333</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -10568,7 +10821,7 @@
       </c>
       <c r="E18" s="12">
         <f>IF(AND(A18="",B18=""),"",COUNTIF(D$1:D18,""))</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="27" t="str">
         <f t="shared" si="1"/>
@@ -10593,7 +10846,7 @@
       </c>
       <c r="E19" s="12">
         <f>IF(AND(A19="",B19=""),"",COUNTIF(D$1:D19,""))</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="27" t="str">
         <f t="shared" si="1"/>
@@ -10618,7 +10871,7 @@
       </c>
       <c r="E20" s="12">
         <f>IF(AND(A20="",B20=""),"",COUNTIF(D$1:D20,""))</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="27" t="str">
         <f t="shared" si="1"/>
@@ -10643,7 +10896,7 @@
       </c>
       <c r="E21" s="12">
         <f>IF(AND(A21="",B21=""),"",COUNTIF(D$1:D21,""))</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="27" t="str">
         <f t="shared" si="1"/>
@@ -10668,7 +10921,7 @@
       </c>
       <c r="E22" s="12">
         <f>IF(AND(A22="",B22=""),"",COUNTIF(D$1:D22,""))</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="27" t="str">
         <f t="shared" si="1"/>
@@ -10693,7 +10946,7 @@
       </c>
       <c r="E23" s="12">
         <f>IF(AND(A23="",B23=""),"",COUNTIF(D$1:D23,""))</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="27" t="str">
         <f t="shared" si="1"/>
@@ -10718,7 +10971,7 @@
       </c>
       <c r="E24" s="12">
         <f>IF(AND(A24="",B24=""),"",COUNTIF(D$1:D24,""))</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" s="27" t="str">
         <f t="shared" si="1"/>
@@ -10743,7 +10996,7 @@
       </c>
       <c r="E25" s="12">
         <f>IF(AND(A25="",B25=""),"",COUNTIF(D$1:D25,""))</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" s="27" t="str">
         <f t="shared" si="1"/>
@@ -10756,15 +11009,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="27" t="str">
+      <c r="B26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="30">
+        <v>0.375</v>
+      </c>
+      <c r="D26" s="27">
         <f>IF(B26="","",SUMIF(TRACKING!E:E,B26,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E26" s="12" t="str">
+        <v>0.62500000000000011</v>
+      </c>
+      <c r="E26" s="12">
         <f>IF(AND(A26="",B26=""),"",COUNTIF(D$1:D26,""))</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="F26" s="27" t="str">
         <f t="shared" si="1"/>
@@ -13390,8 +13647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14297,87 +14554,171 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="21" t="str">
+      <c r="A38" s="16">
+        <v>45706</v>
+      </c>
+      <c r="B38" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C38" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="21" t="str">
+      <c r="A39" s="16">
+        <v>45706</v>
+      </c>
+      <c r="B39" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C39" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="21" t="str">
+      <c r="A40" s="16">
+        <v>45706</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C40" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="21" t="str">
+      <c r="A41" s="16">
+        <v>45706</v>
+      </c>
+      <c r="B41" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C41" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="21" t="str">
+      <c r="A42" s="16">
+        <v>45707</v>
+      </c>
+      <c r="B42" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="C42" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.20833333333333337</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="21" t="str">
+      <c r="A43" s="16">
+        <v>45707</v>
+      </c>
+      <c r="B43" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="C43" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.20833333333333337</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="21" t="str">
+      <c r="A44" s="16">
+        <v>45707</v>
+      </c>
+      <c r="B44" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="C44" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.20833333333333337</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -19903,10 +20244,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19961,7 +20302,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="29">
-        <v>3.895833333333333</v>
+        <v>4.520833333333333</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -20029,35 +20370,59 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="29">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B16" s="29">
         <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="29">
-        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B18" s="29">
         <v>0.29166666666666663</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="29">
-        <v>4.5625</v>
+      <c r="B21" s="29">
+        <v>5.520833333333333</v>
       </c>
     </row>
   </sheetData>
@@ -20070,7 +20435,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20079,9 +20444,8 @@
     <col min="2" max="2" width="11" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" customWidth="1"/>
@@ -20101,7 +20465,6 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
     </row>
@@ -20121,10 +20484,12 @@
       <c r="E2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
     </row>
@@ -20136,15 +20501,17 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D3" s="29">
-        <v>1.1458333333333333</v>
+        <v>1.3541666666666665</v>
       </c>
       <c r="E3" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F3" s="29">
-        <v>1.3124999999999998</v>
-      </c>
-      <c r="G3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G3" s="29">
+        <v>1.6041666666666663</v>
+      </c>
       <c r="H3"/>
       <c r="I3"/>
     </row>
@@ -20156,15 +20523,17 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D4" s="29">
-        <v>0.72916666666666663</v>
+        <v>0.9375</v>
       </c>
       <c r="E4" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F4" s="29">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="G4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G4" s="29">
+        <v>1.1874999999999998</v>
+      </c>
       <c r="H4"/>
       <c r="I4"/>
     </row>
@@ -20182,9 +20551,11 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F5" s="29">
-        <v>1.0416666666666665</v>
-      </c>
-      <c r="G5"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G5" s="29">
+        <v>1.1249999999999998</v>
+      </c>
       <c r="H5"/>
       <c r="I5"/>
     </row>
@@ -20196,15 +20567,17 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D6" s="29">
-        <v>1.1458333333333333</v>
+        <v>1.3541666666666665</v>
       </c>
       <c r="E6" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="F6" s="29">
-        <v>1.3124999999999998</v>
-      </c>
-      <c r="G6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G6" s="29">
+        <v>1.6041666666666663</v>
+      </c>
       <c r="H6"/>
       <c r="I6"/>
     </row>
@@ -20218,10 +20591,10 @@
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="29">
+      <c r="F7" s="29"/>
+      <c r="G7" s="29">
         <v>0</v>
       </c>
-      <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
     </row>
@@ -20236,15 +20609,17 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D8" s="29">
-        <v>3.895833333333333</v>
+        <v>4.520833333333333</v>
       </c>
       <c r="E8" s="29">
         <v>0.33333333333333331</v>
       </c>
       <c r="F8" s="29">
-        <v>4.5624999999999991</v>
-      </c>
-      <c r="G8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G8" s="29">
+        <v>5.5208333333333321</v>
+      </c>
       <c r="H8"/>
       <c r="I8"/>
     </row>
@@ -20320,7 +20695,7 @@
   <dimension ref="A1:CZ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20545,42 +20920,63 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C13" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D13" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E13" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G13" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="29">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C14" s="29">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G14" s="29">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="29">
-        <v>1.3125000000000002</v>
-      </c>
-      <c r="C13" s="29">
-        <v>0.89583333333333326</v>
-      </c>
-      <c r="D13" s="29">
-        <v>1.0416666666666667</v>
-      </c>
-      <c r="E13" s="29">
-        <v>1.3125000000000002</v>
-      </c>
-      <c r="F13" s="29">
+      <c r="B15" s="29">
+        <v>1.6041666666666667</v>
+      </c>
+      <c r="C15" s="29">
+        <v>1.1875</v>
+      </c>
+      <c r="D15" s="29">
+        <v>1.125</v>
+      </c>
+      <c r="E15" s="29">
+        <v>1.6041666666666667</v>
+      </c>
+      <c r="F15" s="29">
         <v>0</v>
       </c>
-      <c r="G13" s="29">
-        <v>4.5625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
+      <c r="G15" s="29">
+        <v>5.520833333333333</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16"/>

--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaim\OneDrive\Desktop\Ballingo\Drafts-Ballingo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaim\Desktop\Ballingo\Drafts-Ballingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068B9FB2-1329-4060-8653-182175E5A187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194C7D46-CCC5-4DF4-8C86-253F714FB268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="63">
   <si>
     <t>Tarea</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>19-feb</t>
+  </si>
+  <si>
+    <t>Frontend Trading and Inventory</t>
+  </si>
+  <si>
+    <t>20-feb</t>
   </si>
 </sst>
 </file>
@@ -1191,16 +1197,16 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.3541666666666665</c:v>
+                  <c:v>1.5208333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9375</c:v>
+                  <c:v>1.1041666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.87499999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3541666666666665</c:v>
+                  <c:v>1.5208333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1544,9 +1550,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$21</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$22</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>(en blanco)</c:v>
@@ -1582,12 +1588,15 @@
                     <c:v>Fronted conecting routes</c:v>
                   </c:pt>
                   <c:pt idx="11">
+                    <c:v>Frontend Trading and Inventory</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
                     <c:v>Market Analysis</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>SWOT Analysis</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>Stories</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1601,10 +1610,10 @@
                   <c:pt idx="2">
                     <c:v>Aplication</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>R1</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>R2</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1613,10 +1622,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$21</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1651,12 +1660,15 @@
                   <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.29166666666666663</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
@@ -2267,9 +2279,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$15</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2306,15 +2318,18 @@
                 <c:pt idx="11">
                   <c:v>19-feb</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>20-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$B$3:$B$15</c:f>
+              <c:f>HOURS_PERSON_DAY!$B$3:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2345,6 +2360,9 @@
                 <c:pt idx="11">
                   <c:v>0.20833333333333334</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2371,9 +2389,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$15</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2410,15 +2428,18 @@
                 <c:pt idx="11">
                   <c:v>19-feb</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>20-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$C$3:$C$15</c:f>
+              <c:f>HOURS_PERSON_DAY!$C$3:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2446,6 +2467,9 @@
                 <c:pt idx="11">
                   <c:v>0.20833333333333334</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2472,9 +2496,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$15</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2511,15 +2535,18 @@
                 <c:pt idx="11">
                   <c:v>19-feb</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>20-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$D$3:$D$15</c:f>
+              <c:f>HOURS_PERSON_DAY!$D$3:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2570,9 +2597,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$15</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2609,15 +2636,18 @@
                 <c:pt idx="11">
                   <c:v>19-feb</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>20-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$E$3:$E$15</c:f>
+              <c:f>HOURS_PERSON_DAY!$E$3:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="1">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2648,6 +2678,9 @@
                 <c:pt idx="11">
                   <c:v>0.20833333333333334</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2674,9 +2707,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$15</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
@@ -2713,15 +2746,18 @@
                 <c:pt idx="11">
                   <c:v>19-feb</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>20-feb</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$F$3:$F$15</c:f>
+              <c:f>HOURS_PERSON_DAY!$F$3:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2912,13 +2948,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="acaoriginal YT" refreshedDate="45708.002067361114" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Acaymo Granado Sánchez" refreshedDate="45708.945356249998" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="TRACKING"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="DATE" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-02-20T00:00:00" count="12">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-02-21T00:00:00" count="13">
         <d v="2025-02-04T00:00:00"/>
         <d v="2025-02-05T00:00:00"/>
         <d v="2025-02-06T00:00:00"/>
@@ -2930,10 +2966,11 @@
         <d v="2025-02-16T00:00:00"/>
         <d v="2025-02-18T00:00:00"/>
         <d v="2025-02-19T00:00:00"/>
+        <d v="2025-02-20T00:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup par="7" base="0">
-        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-02-20T00:00:00"/>
+        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-02-21T00:00:00"/>
         <groupItems count="368">
           <s v="(en blanco)"/>
           <s v="01-ene"/>
@@ -3302,7 +3339,7 @@
           <s v="29-dic"/>
           <s v="30-dic"/>
           <s v="31-dic"/>
-          <s v="&gt;20/02/2025"/>
+          <s v="&gt;21/02/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -3441,7 +3478,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="SUBTASK" numFmtId="0">
-      <sharedItems containsBlank="1" count="14">
+      <sharedItems containsBlank="1" count="15">
         <s v="Description"/>
         <s v="Mock - Ups"/>
         <s v="DB Structure Draft Version 1"/>
@@ -3455,6 +3492,7 @@
         <s v="Frontend developing components"/>
         <s v="Stories"/>
         <s v="Fronted conecting routes"/>
+        <s v="Frontend Trading and Inventory"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -3472,7 +3510,7 @@
     </cacheField>
     <cacheField name="Meses" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-02-20T00:00:00"/>
+        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-02-21T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;04/02/2025"/>
           <s v="ene"/>
@@ -3487,7 +3525,7 @@
           <s v="oct"/>
           <s v="nov"/>
           <s v="dic"/>
-          <s v="&gt;20/02/2025"/>
+          <s v="&gt;21/02/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -3924,4114 +3962,4114 @@
   </r>
   <r>
     <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="1"/>
     <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
+    <x v="1"/>
+    <d v="1899-12-30T04:00:00"/>
   </r>
   <r>
     <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="1"/>
     <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
+    <x v="2"/>
+    <d v="1899-12-30T04:00:00"/>
   </r>
   <r>
     <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="1"/>
     <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="9"/>
-    <x v="4"/>
-    <x v="13"/>
+    <x v="3"/>
+    <d v="1899-12-30T04:00:00"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="8"/>
+    <x v="9"/>
+    <x v="4"/>
+    <x v="14"/>
     <x v="4"/>
     <m/>
   </r>
@@ -8040,7 +8078,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A1:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A1:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="369">
@@ -8494,8 +8532,8 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="15">
-        <item x="13"/>
+      <items count="16">
+        <item x="14"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8509,6 +8547,7 @@
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
+        <item x="13"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8569,7 +8608,7 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="20">
+  <rowItems count="21">
     <i>
       <x/>
     </i>
@@ -8611,6 +8650,9 @@
     </i>
     <i r="1">
       <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
     </i>
     <i>
       <x v="3"/>
@@ -9343,7 +9385,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
-  <location ref="A1:G15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:G16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
       <items count="369">
@@ -9853,7 +9895,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="13">
+  <rowItems count="14">
     <i>
       <x/>
     </i>
@@ -9889,6 +9931,9 @@
     </i>
     <i>
       <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
     </i>
     <i t="grand">
       <x/>
@@ -10309,7 +10354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -10410,7 +10455,7 @@
   <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10800,11 +10845,11 @@
       </c>
       <c r="F17" s="27">
         <f t="shared" si="1"/>
-        <v>2.458333333333333</v>
+        <v>2.708333333333333</v>
       </c>
       <c r="G17" s="27">
         <f>IF(A17="","",SUMIF(TRACKING!D:D,A17,TRACKING!G:G))</f>
-        <v>4.520833333333333</v>
+        <v>5.0208333333333339</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -11034,15 +11079,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="27" t="str">
+      <c r="B27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="D27" s="27">
         <f>IF(B27="","",SUMIF(TRACKING!E:E,B27,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E27" s="12" t="str">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="E27" s="12">
         <f>IF(AND(A27="",B27=""),"",COUNTIF(D$1:D27,""))</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="F27" s="27" t="str">
         <f t="shared" si="1"/>
@@ -13647,8 +13696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14722,39 +14771,75 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="21" t="str">
+      <c r="A45" s="16">
+        <v>45708</v>
+      </c>
+      <c r="B45" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C45" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="21" t="str">
+      <c r="A46" s="16">
+        <v>45708</v>
+      </c>
+      <c r="B46" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C46" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="21" t="str">
+      <c r="A47" s="16">
+        <v>45708</v>
+      </c>
+      <c r="B47" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C47" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -20244,10 +20329,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20302,7 +20387,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="29">
-        <v>4.520833333333333</v>
+        <v>5.020833333333333</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -20378,51 +20463,59 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B17" s="29">
         <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="29">
-        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B19" s="29">
         <v>0.29166666666666663</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B19" s="29">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>57</v>
       </c>
       <c r="B20" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="29">
-        <v>5.520833333333333</v>
+      <c r="B22" s="29">
+        <v>6.020833333333333</v>
       </c>
     </row>
   </sheetData>
@@ -20435,7 +20528,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20501,7 +20594,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D3" s="29">
-        <v>1.3541666666666665</v>
+        <v>1.5208333333333333</v>
       </c>
       <c r="E3" s="29">
         <v>8.3333333333333329E-2</v>
@@ -20510,7 +20603,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G3" s="29">
-        <v>1.6041666666666663</v>
+        <v>1.770833333333333</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -20523,7 +20616,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D4" s="29">
-        <v>0.9375</v>
+        <v>1.1041666666666667</v>
       </c>
       <c r="E4" s="29">
         <v>8.3333333333333329E-2</v>
@@ -20532,7 +20625,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G4" s="29">
-        <v>1.1874999999999998</v>
+        <v>1.3541666666666665</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -20567,7 +20660,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D6" s="29">
-        <v>1.3541666666666665</v>
+        <v>1.5208333333333333</v>
       </c>
       <c r="E6" s="29">
         <v>8.3333333333333329E-2</v>
@@ -20576,7 +20669,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G6" s="29">
-        <v>1.6041666666666663</v>
+        <v>1.770833333333333</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -20609,7 +20702,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D8" s="29">
-        <v>4.520833333333333</v>
+        <v>5.020833333333333</v>
       </c>
       <c r="E8" s="29">
         <v>0.33333333333333331</v>
@@ -20618,7 +20711,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G8" s="29">
-        <v>5.5208333333333321</v>
+        <v>6.0208333333333321</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -20694,8 +20787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:CZ31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20957,34 +21050,43 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="29">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C15" s="29">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="29">
-        <v>1.6041666666666667</v>
-      </c>
-      <c r="C15" s="29">
-        <v>1.1875</v>
-      </c>
-      <c r="D15" s="29">
+      <c r="B16" s="29">
+        <v>1.7708333333333335</v>
+      </c>
+      <c r="C16" s="29">
+        <v>1.3541666666666667</v>
+      </c>
+      <c r="D16" s="29">
         <v>1.125</v>
       </c>
-      <c r="E15" s="29">
-        <v>1.6041666666666667</v>
-      </c>
-      <c r="F15" s="29">
+      <c r="E16" s="29">
+        <v>1.7708333333333335</v>
+      </c>
+      <c r="F16" s="29">
         <v>0</v>
       </c>
-      <c r="G15" s="29">
-        <v>5.520833333333333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
+      <c r="G16" s="29">
+        <v>6.020833333333333</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17"/>

--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaim\Desktop\Ballingo\Drafts-Ballingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175FDA75-6883-4B59-84C9-5BB5589A1F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEC1D8F-C2E5-42AE-9946-11D0D7E80C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="36" r:id="rId8"/>
+    <pivotCache cacheId="9" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="71">
   <si>
     <t>Tarea</t>
   </si>
@@ -234,19 +234,25 @@
     <t>Started profile screen</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>21-feb</t>
   </si>
   <si>
     <t>23-feb</t>
+  </si>
+  <si>
+    <t>Started Questionarie</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>(en blanco)</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>24-feb</t>
   </si>
 </sst>
 </file>
@@ -436,79 +442,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <numFmt numFmtId="164" formatCode="h:mm;@"/>
     </dxf>
@@ -573,7 +507,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1085,7 +1019,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1109,7 +1043,7 @@
                   <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1165,7 +1099,7 @@
                   <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1230,7 +1164,7 @@
                   <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1242,7 +1176,7 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.5208333333333333</c:v>
+                  <c:v>1.6458333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.5624999999999998</c:v>
@@ -1251,7 +1185,7 @@
                   <c:v>1.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5208333333333333</c:v>
+                  <c:v>1.6458333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1295,7 +1229,7 @@
                   <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1360,7 +1294,7 @@
                   <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1459,7 +1393,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1595,12 +1529,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$26</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$27</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(blank)</c:v>
+                    <c:v>(en blanco)</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>Description</c:v>
@@ -1648,18 +1582,21 @@
                     <c:v>Started profile screen</c:v>
                   </c:pt>
                   <c:pt idx="16">
+                    <c:v>Started Questionarie</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
                     <c:v>Market Analysis</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>SWOT Analysis</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>Stories</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(blank)</c:v>
+                    <c:v>(en blanco)</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>R0 </c:v>
@@ -1667,10 +1604,10 @@
                   <c:pt idx="2">
                     <c:v>Aplication</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>R1</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>R2</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1679,10 +1616,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$26</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1732,12 +1669,15 @@
                   <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>0.29166666666666663</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
@@ -1811,7 +1751,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2348,9 +2288,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$18</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2394,17 +2334,20 @@
                   <c:v>23-feb</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>(blank)</c:v>
+                  <c:v>24-feb</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$B$3:$B$18</c:f>
+              <c:f>HOURS_PERSON_DAY!$B$3:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2438,6 +2381,9 @@
                 <c:pt idx="11">
                   <c:v>0.16666666666666666</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.125</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2464,9 +2410,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$18</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2510,17 +2456,20 @@
                   <c:v>23-feb</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>(blank)</c:v>
+                  <c:v>24-feb</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$C$3:$C$18</c:f>
+              <c:f>HOURS_PERSON_DAY!$C$3:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2583,9 +2532,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$18</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2629,17 +2578,20 @@
                   <c:v>23-feb</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>(blank)</c:v>
+                  <c:v>24-feb</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$D$3:$D$18</c:f>
+              <c:f>HOURS_PERSON_DAY!$D$3:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2696,9 +2648,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$18</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2742,17 +2694,20 @@
                   <c:v>23-feb</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>(blank)</c:v>
+                  <c:v>24-feb</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$E$3:$E$18</c:f>
+              <c:f>HOURS_PERSON_DAY!$E$3:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2786,6 +2741,9 @@
                 <c:pt idx="11">
                   <c:v>0.16666666666666666</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.125</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2804,7 +2762,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2812,9 +2770,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$18</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2858,18 +2816,21 @@
                   <c:v>23-feb</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>(blank)</c:v>
+                  <c:v>24-feb</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$F$3:$F$18</c:f>
+              <c:f>HOURS_PERSON_DAY!$F$3:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="14">
+                <c:ptCount val="16"/>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3059,13 +3020,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paula Rosa Rodríguez Morales" refreshedDate="45711.892025578702" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Acaymo Granado Sánchez" refreshedDate="45712.96068113426" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="TRACKING"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="DATE" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-02-24T00:00:00" count="15">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-02-25T00:00:00" count="16">
         <d v="2025-02-04T00:00:00"/>
         <d v="2025-02-05T00:00:00"/>
         <d v="2025-02-06T00:00:00"/>
@@ -3080,12 +3041,13 @@
         <d v="2025-02-20T00:00:00"/>
         <d v="2025-02-21T00:00:00"/>
         <d v="2025-02-23T00:00:00"/>
+        <d v="2025-02-24T00:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup par="7" base="0">
-        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-02-24T00:00:00"/>
+        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-02-25T00:00:00"/>
         <groupItems count="368">
-          <s v="(blank)"/>
+          <s v="(en blanco)"/>
           <s v="01-ene"/>
           <s v="02-ene"/>
           <s v="03-ene"/>
@@ -3452,12 +3414,12 @@
           <s v="29-dic"/>
           <s v="30-dic"/>
           <s v="31-dic"/>
-          <s v="&gt;24/02/2025"/>
+          <s v="&gt;25/02/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="STARTING TIME" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T10:00:00" maxDate="1899-12-30T21:00:00" count="11">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T10:00:00" maxDate="1899-12-30T21:00:00" count="12">
         <d v="1899-12-30T18:00:00"/>
         <d v="1899-12-30T16:00:00"/>
         <d v="1899-12-30T10:00:00"/>
@@ -3468,12 +3430,13 @@
         <d v="1899-12-30T15:00:00"/>
         <d v="1899-12-30T12:00:00"/>
         <d v="1899-12-30T14:00:00"/>
+        <d v="1899-12-30T20:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup base="1">
         <rangePr groupBy="hours" startDate="1899-12-30T10:00:00" endDate="1899-12-30T21:00:00"/>
         <groupItems count="26">
-          <s v="(blank)"/>
+          <s v="(en blanco)"/>
           <s v="0"/>
           <s v="1"/>
           <s v="2"/>
@@ -3519,7 +3482,7 @@
       <fieldGroup par="8" base="2">
         <rangePr groupBy="minutes" startDate="1899-12-30T13:00:00" endDate="1899-12-30T23:30:00"/>
         <groupItems count="62">
-          <s v="(blank)"/>
+          <s v="(en blanco)"/>
           <s v=":00"/>
           <s v=":01"/>
           <s v=":02"/>
@@ -3594,7 +3557,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="SUBTASK" numFmtId="0">
-      <sharedItems containsBlank="1" count="19">
+      <sharedItems containsBlank="1" count="20">
         <s v="Description"/>
         <s v="Mock - Ups"/>
         <s v="DB Structure Draft Version 1"/>
@@ -3613,6 +3576,7 @@
         <s v="Frontend shop screen finished"/>
         <s v="Fixes and visual enhancements"/>
         <s v="Started profile screen"/>
+        <s v="Started Questionarie"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -3630,7 +3594,7 @@
     </cacheField>
     <cacheField name="Meses" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-02-24T00:00:00"/>
+        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-02-25T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;04/02/2025"/>
           <s v="ene"/>
@@ -3645,7 +3609,7 @@
           <s v="oct"/>
           <s v="nov"/>
           <s v="dic"/>
-          <s v="&gt;24/02/2025"/>
+          <s v="&gt;25/02/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -4182,4014 +4146,4014 @@
   <r>
     <x v="14"/>
     <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
     <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
+    <x v="2"/>
+    <d v="1899-12-30T03:00:00"/>
   </r>
   <r>
     <x v="14"/>
     <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
     <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="18"/>
+    <x v="3"/>
+    <d v="1899-12-30T03:00:00"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="19"/>
     <x v="4"/>
     <m/>
   </r>
@@ -8197,8 +8161,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A1:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A1:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="369">
@@ -8652,8 +8616,8 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="20">
-        <item x="18"/>
+      <items count="21">
+        <item x="19"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8672,6 +8636,7 @@
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
+        <item x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8732,7 +8697,7 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="25">
+  <rowItems count="26">
     <i>
       <x/>
     </i>
@@ -8790,6 +8755,9 @@
     <i r="1">
       <x v="18"/>
     </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
     <i>
       <x v="3"/>
     </i>
@@ -8816,10 +8784,10 @@
     <dataField name="Suma de DURATION" fld="6" baseField="3" baseItem="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="39">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -8862,7 +8830,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
   <location ref="A1:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -9429,13 +9397,13 @@
     <dataField name="Suma de DURATION" fld="6" baseField="5" baseItem="2"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="37">
+    <format dxfId="13">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -9520,8 +9488,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
-  <location ref="A1:G18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
+  <location ref="A1:G19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
       <items count="369">
@@ -10031,7 +9999,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="16">
+  <rowItems count="17">
     <i>
       <x v="34"/>
     </i>
@@ -10075,6 +10043,9 @@
       <x v="53"/>
     </i>
     <i>
+      <x v="54"/>
+    </i>
+    <i>
       <x v="366"/>
     </i>
     <i t="grand">
@@ -10108,13 +10079,13 @@
     <dataField name="Suma de DURATION" fld="6" baseField="0" baseItem="264"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="34">
+    <format dxfId="10">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -10500,7 +10471,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
@@ -10597,10 +10568,10 @@
   <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D32" sqref="C32:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" style="10" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" style="10" customWidth="1"/>
@@ -10987,11 +10958,11 @@
       </c>
       <c r="F17" s="27">
         <f t="shared" si="1"/>
-        <v>3.2083333333333335</v>
+        <v>3.4583333333333335</v>
       </c>
       <c r="G17" s="27">
         <f>IF(A17="","",SUMIF(TRACKING!D:D,A17,TRACKING!G:G))</f>
-        <v>5.9374999999999982</v>
+        <v>6.1874999999999982</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -11346,15 +11317,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="27" t="str">
+      <c r="B32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="27">
         <f>IF(B32="","",SUMIF(TRACKING!E:E,B32,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E32" s="12" t="str">
+        <v>0.25</v>
+      </c>
+      <c r="E32" s="12">
         <f>IF(AND(A32="",B32=""),"",COUNTIF(D$1:D32,""))</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="F32" s="27" t="str">
         <f t="shared" si="1"/>
@@ -13854,11 +13829,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="18" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="19" bestFit="1" customWidth="1"/>
@@ -15193,27 +15168,51 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="21" t="str">
+      <c r="A56" s="16">
+        <v>45712</v>
+      </c>
+      <c r="B56" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C56" s="17">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.125</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="21" t="str">
+      <c r="A57" s="16">
+        <v>45712</v>
+      </c>
+      <c r="B57" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C57" s="17">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.125</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -20583,22 +20582,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>18</v>
@@ -20606,7 +20605,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2" s="29">
         <v>0</v>
@@ -20614,7 +20613,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B3" s="29">
         <v>0</v>
@@ -20641,7 +20640,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="29">
-        <v>5.9375000000000009</v>
+        <v>6.1875000000000009</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -20757,51 +20756,59 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B22" s="29">
         <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="29">
-        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B24" s="29">
         <v>0.29166666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" s="29">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
-        <v>54</v>
       </c>
       <c r="B25" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>66</v>
+      <c r="A26" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="B26" s="29">
-        <v>6.9375000000000009</v>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="29">
+        <v>7.1875000000000009</v>
       </c>
     </row>
   </sheetData>
@@ -20815,14 +20822,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" customWidth="1"/>
@@ -20847,10 +20854,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -20865,7 +20872,7 @@
         <v>53</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -20878,7 +20885,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D3" s="29">
-        <v>1.5208333333333333</v>
+        <v>1.6458333333333333</v>
       </c>
       <c r="E3" s="29">
         <v>8.3333333333333329E-2</v>
@@ -20887,7 +20894,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G3" s="29">
-        <v>1.770833333333333</v>
+        <v>1.895833333333333</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -20944,7 +20951,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D6" s="29">
-        <v>1.5208333333333333</v>
+        <v>1.6458333333333333</v>
       </c>
       <c r="E6" s="29">
         <v>8.3333333333333329E-2</v>
@@ -20953,14 +20960,14 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G6" s="29">
-        <v>1.770833333333333</v>
+        <v>1.895833333333333</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B7" s="29">
         <v>0</v>
@@ -20977,7 +20984,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B8" s="29">
         <v>0</v>
@@ -20986,7 +20993,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D8" s="29">
-        <v>5.9374999999999991</v>
+        <v>6.1874999999999991</v>
       </c>
       <c r="E8" s="29">
         <v>0.33333333333333331</v>
@@ -20995,7 +21002,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G8" s="29">
-        <v>6.9374999999999982</v>
+        <v>7.1874999999999982</v>
       </c>
       <c r="H8"/>
       <c r="I8"/>
@@ -21075,14 +21082,14 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="8" max="104" width="11.42578125" style="29"/>
   </cols>
   <sheetData>
@@ -21101,7 +21108,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -21116,10 +21123,10 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -21340,7 +21347,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C15" s="29">
         <v>8.3333333333333329E-2</v>
@@ -21354,7 +21361,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" s="29">
         <v>0.375</v>
@@ -21368,45 +21375,51 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="29">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="B17" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="E17" s="29">
+        <v>0.125</v>
       </c>
       <c r="G17" s="29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="29">
-        <v>1.7708333333333335</v>
-      </c>
-      <c r="C18" s="29">
-        <v>1.8125</v>
-      </c>
-      <c r="D18" s="29">
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="E18" s="29">
-        <v>1.7708333333333335</v>
+        <v>68</v>
       </c>
       <c r="F18" s="29">
         <v>0</v>
       </c>
       <c r="G18" s="29">
-        <v>6.9375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
+      <c r="A19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="29">
+        <v>1.8958333333333335</v>
+      </c>
+      <c r="C19" s="29">
+        <v>1.8125</v>
+      </c>
+      <c r="D19" s="29">
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="E19" s="29">
+        <v>1.8958333333333335</v>
+      </c>
+      <c r="F19" s="29">
+        <v>0</v>
+      </c>
+      <c r="G19" s="29">
+        <v>7.1875</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20"/>
@@ -21517,7 +21530,7 @@
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaim\Desktop\Ballingo\Drafts-Ballingo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santu\Desktop\tracking\Drafts-Ballingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEC1D8F-C2E5-42AE-9946-11D0D7E80C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17B09A9-0CB7-4CAC-A0C6-7176B5D1ED08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="74">
   <si>
     <t>Tarea</t>
   </si>
@@ -253,6 +253,15 @@
   </si>
   <si>
     <t>24-feb</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>User story estimation and priority</t>
+  </si>
+  <si>
+    <t>25-feb</t>
   </si>
 </sst>
 </file>
@@ -1003,6 +1012,19 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1323,6 +1345,71 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5045-47A5-B84E-1B6D83EA3CF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>HOURS_PERSON_TASK!$G$1:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>HOURS_PERSON_TASK!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Acaymo</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mauro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Paula</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Santiago</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>(en blanco)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HOURS_PERSON_TASK!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>[h]:mm:ss;@</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B80-4557-BE42-E9A52BB210A1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1529,9 +1616,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$27</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$29</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>(en blanco)</c:v>
@@ -1593,6 +1680,9 @@
                   <c:pt idx="19">
                     <c:v>Stories</c:v>
                   </c:pt>
+                  <c:pt idx="20">
+                    <c:v>User story estimation and priority</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1610,16 +1700,19 @@
                   <c:pt idx="19">
                     <c:v>R2</c:v>
                   </c:pt>
+                  <c:pt idx="20">
+                    <c:v>R3</c:v>
+                  </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
             </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$27</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1678,6 +1771,9 @@
                   <c:v>0.29166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
@@ -2288,9 +2384,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$19</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2337,6 +2433,9 @@
                   <c:v>24-feb</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>25-feb</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2344,10 +2443,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$B$3:$B$19</c:f>
+              <c:f>HOURS_PERSON_DAY!$B$3:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2383,6 +2482,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2410,9 +2512,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$19</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2459,6 +2561,9 @@
                   <c:v>24-feb</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>25-feb</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2466,10 +2571,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$C$3:$C$19</c:f>
+              <c:f>HOURS_PERSON_DAY!$C$3:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2505,6 +2610,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2532,9 +2640,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$19</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2581,6 +2689,9 @@
                   <c:v>24-feb</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>25-feb</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2588,10 +2699,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$D$3:$D$19</c:f>
+              <c:f>HOURS_PERSON_DAY!$D$3:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2621,6 +2732,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2648,9 +2762,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$19</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2697,6 +2811,9 @@
                   <c:v>24-feb</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>25-feb</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2704,10 +2821,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$E$3:$E$19</c:f>
+              <c:f>HOURS_PERSON_DAY!$E$3:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2743,6 +2860,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2770,9 +2890,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$19</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2819,6 +2939,9 @@
                   <c:v>24-feb</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>25-feb</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2826,11 +2949,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$F$3:$F$19</c:f>
+              <c:f>HOURS_PERSON_DAY!$F$3:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="15">
+                <c:ptCount val="17"/>
+                <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3020,13 +3143,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Acaymo Granado Sánchez" refreshedDate="45712.96068113426" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="santi sm" refreshedDate="45713.858062847219" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="TRACKING"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="DATE" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-02-25T00:00:00" count="16">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-02-26T00:00:00" count="17">
         <d v="2025-02-04T00:00:00"/>
         <d v="2025-02-05T00:00:00"/>
         <d v="2025-02-06T00:00:00"/>
@@ -3042,10 +3165,11 @@
         <d v="2025-02-21T00:00:00"/>
         <d v="2025-02-23T00:00:00"/>
         <d v="2025-02-24T00:00:00"/>
+        <d v="2025-02-25T00:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup par="7" base="0">
-        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-02-25T00:00:00"/>
+        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-02-26T00:00:00"/>
         <groupItems count="368">
           <s v="(en blanco)"/>
           <s v="01-ene"/>
@@ -3414,7 +3538,7 @@
           <s v="29-dic"/>
           <s v="30-dic"/>
           <s v="31-dic"/>
-          <s v="&gt;25/02/2025"/>
+          <s v="&gt;26/02/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -3548,16 +3672,17 @@
       </fieldGroup>
     </cacheField>
     <cacheField name="TASK" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems containsBlank="1" count="6">
         <s v="R0 "/>
         <s v="Aplication"/>
         <s v="R1"/>
         <s v="R2"/>
+        <s v="R3"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="SUBTASK" numFmtId="0">
-      <sharedItems containsBlank="1" count="20">
+      <sharedItems containsBlank="1" count="21">
         <s v="Description"/>
         <s v="Mock - Ups"/>
         <s v="DB Structure Draft Version 1"/>
@@ -3577,6 +3702,7 @@
         <s v="Fixes and visual enhancements"/>
         <s v="Started profile screen"/>
         <s v="Started Questionarie"/>
+        <s v="User story estimation and priority"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -3594,7 +3720,7 @@
     </cacheField>
     <cacheField name="Meses" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-02-25T00:00:00"/>
+        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-02-26T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;04/02/2025"/>
           <s v="ene"/>
@@ -3609,7 +3735,7 @@
           <s v="oct"/>
           <s v="nov"/>
           <s v="dic"/>
-          <s v="&gt;25/02/2025"/>
+          <s v="&gt;26/02/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -4163,3997 +4289,3997 @@
   </r>
   <r>
     <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
+    <x v="0"/>
+    <d v="1899-12-30T02:00:00"/>
   </r>
   <r>
     <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
+    <x v="1"/>
+    <d v="1899-12-30T02:00:00"/>
   </r>
   <r>
     <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
+    <x v="3"/>
+    <d v="1899-12-30T02:00:00"/>
   </r>
   <r>
     <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="19"/>
+    <x v="2"/>
+    <d v="1899-12-30T02:00:00"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="20"/>
     <x v="4"/>
     <m/>
   </r>
@@ -8162,7 +8288,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A1:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A1:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="369">
@@ -8606,18 +8732,19 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="4"/>
+      <items count="7">
+        <item x="5"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="21">
-        <item x="19"/>
+      <items count="22">
+        <item x="20"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8637,6 +8764,7 @@
         <item x="16"/>
         <item x="17"/>
         <item x="18"/>
+        <item x="19"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8697,7 +8825,7 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="26">
+  <rowItems count="28">
     <i>
       <x/>
     </i>
@@ -8773,6 +8901,12 @@
     <i r="1">
       <x v="12"/>
     </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -8831,7 +8965,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
-  <location ref="A1:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:H8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="369">
@@ -9275,12 +9409,13 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="6">
-        <item x="4"/>
+      <items count="7">
+        <item x="5"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9373,7 +9508,7 @@
   <colFields count="1">
     <field x="3"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="7">
     <i>
       <x/>
     </i>
@@ -9388,6 +9523,9 @@
     </i>
     <i>
       <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -9489,7 +9627,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
-  <location ref="A1:G19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:G20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
       <items count="369">
@@ -9999,7 +10137,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="17">
+  <rowItems count="18">
     <i>
       <x v="34"/>
     </i>
@@ -10044,6 +10182,9 @@
     </i>
     <i>
       <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
     </i>
     <i>
       <x v="366"/>
@@ -10568,7 +10709,7 @@
   <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="C32:D32"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10796,37 +10937,43 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="B10" s="9"/>
       <c r="C10" s="30"/>
       <c r="D10" s="27" t="str">
         <f>IF(B10="","",SUMIF(TRACKING!E:E,B10,TRACKING!G:G))</f>
         <v/>
       </c>
-      <c r="E10" s="12" t="str">
+      <c r="E10" s="12">
         <f>IF(AND(A10="",B10=""),"",COUNTIF(D$1:D10,""))</f>
-        <v/>
-      </c>
-      <c r="F10" s="27" t="str">
+        <v>5</v>
+      </c>
+      <c r="F10" s="27">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G10" s="27" t="str">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G10" s="27">
         <f>IF(A10="","",SUMIF(TRACKING!D:D,A10,TRACKING!G:G))</f>
-        <v/>
+        <v>0.33333333333333348</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="27" t="str">
+      <c r="B11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="30">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D11" s="27">
         <f>IF(B11="","",SUMIF(TRACKING!E:E,B11,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E11" s="12" t="str">
+        <v>0.33333333333333348</v>
+      </c>
+      <c r="E11" s="12">
         <f>IF(AND(A11="",B11=""),"",COUNTIF(D$1:D11,""))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="F11" s="27" t="str">
         <f t="shared" si="1"/>
@@ -10954,7 +11101,7 @@
       </c>
       <c r="E17" s="12">
         <f>IF(AND(A17="",B17=""),"",COUNTIF(D$1:D17,""))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="27">
         <f t="shared" si="1"/>
@@ -10979,7 +11126,7 @@
       </c>
       <c r="E18" s="12">
         <f>IF(AND(A18="",B18=""),"",COUNTIF(D$1:D18,""))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11004,7 +11151,7 @@
       </c>
       <c r="E19" s="12">
         <f>IF(AND(A19="",B19=""),"",COUNTIF(D$1:D19,""))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11029,7 +11176,7 @@
       </c>
       <c r="E20" s="12">
         <f>IF(AND(A20="",B20=""),"",COUNTIF(D$1:D20,""))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11054,7 +11201,7 @@
       </c>
       <c r="E21" s="12">
         <f>IF(AND(A21="",B21=""),"",COUNTIF(D$1:D21,""))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11079,7 +11226,7 @@
       </c>
       <c r="E22" s="12">
         <f>IF(AND(A22="",B22=""),"",COUNTIF(D$1:D22,""))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11104,7 +11251,7 @@
       </c>
       <c r="E23" s="12">
         <f>IF(AND(A23="",B23=""),"",COUNTIF(D$1:D23,""))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11129,7 +11276,7 @@
       </c>
       <c r="E24" s="12">
         <f>IF(AND(A24="",B24=""),"",COUNTIF(D$1:D24,""))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11154,7 +11301,7 @@
       </c>
       <c r="E25" s="12">
         <f>IF(AND(A25="",B25=""),"",COUNTIF(D$1:D25,""))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11179,7 +11326,7 @@
       </c>
       <c r="E26" s="12">
         <f>IF(AND(A26="",B26=""),"",COUNTIF(D$1:D26,""))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F26" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11204,7 +11351,7 @@
       </c>
       <c r="E27" s="12">
         <f>IF(AND(A27="",B27=""),"",COUNTIF(D$1:D27,""))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11229,7 +11376,7 @@
       </c>
       <c r="E28" s="12">
         <f>IF(AND(A28="",B28=""),"",COUNTIF(D$1:D28,""))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11254,7 +11401,7 @@
       </c>
       <c r="E29" s="12">
         <f>IF(AND(A29="",B29=""),"",COUNTIF(D$1:D29,""))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11279,7 +11426,7 @@
       </c>
       <c r="E30" s="12">
         <f>IF(AND(A30="",B30=""),"",COUNTIF(D$1:D30,""))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11304,7 +11451,7 @@
       </c>
       <c r="E31" s="12">
         <f>IF(AND(A31="",B31=""),"",COUNTIF(D$1:D31,""))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11329,7 +11476,7 @@
       </c>
       <c r="E32" s="12">
         <f>IF(AND(A32="",B32=""),"",COUNTIF(D$1:D32,""))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" s="27" t="str">
         <f t="shared" si="1"/>
@@ -13830,7 +13977,7 @@
   <dimension ref="A1:H500"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15216,51 +15363,99 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="16"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="21" t="str">
+      <c r="A58" s="16">
+        <v>45713</v>
+      </c>
+      <c r="B58" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C58" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="21" t="str">
+      <c r="A59" s="16">
+        <v>45713</v>
+      </c>
+      <c r="B59" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C59" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="21" t="str">
+      <c r="A60" s="16">
+        <v>45713</v>
+      </c>
+      <c r="B60" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C60" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="21" t="str">
+      <c r="A61" s="16">
+        <v>45713</v>
+      </c>
+      <c r="B61" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C61" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -20582,10 +20777,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20805,10 +21000,26 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="29">
-        <v>7.1875000000000009</v>
+      <c r="B29" s="29">
+        <v>7.5208333333333339</v>
       </c>
     </row>
   </sheetData>
@@ -20828,9 +21039,8 @@
     <col min="2" max="2" width="11" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5703125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" customWidth="1"/>
@@ -20849,7 +21059,6 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="H1"/>
       <c r="I1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -20871,10 +21080,12 @@
       <c r="F2" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="H2"/>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -20894,9 +21105,11 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G3" s="29">
-        <v>1.895833333333333</v>
-      </c>
-      <c r="H3"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H3" s="29">
+        <v>1.9791666666666663</v>
+      </c>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -20916,9 +21129,11 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G4" s="29">
-        <v>1.8124999999999996</v>
-      </c>
-      <c r="H4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H4" s="29">
+        <v>1.8958333333333328</v>
+      </c>
       <c r="I4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -20938,9 +21153,11 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G5" s="29">
-        <v>1.5833333333333328</v>
-      </c>
-      <c r="H5"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H5" s="29">
+        <v>1.6666666666666661</v>
+      </c>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -20960,9 +21177,11 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G6" s="29">
-        <v>1.895833333333333</v>
-      </c>
-      <c r="H6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H6" s="29">
+        <v>1.9791666666666663</v>
+      </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -20976,10 +21195,10 @@
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="29">
+      <c r="G7" s="29"/>
+      <c r="H7" s="29">
         <v>0</v>
       </c>
-      <c r="H7"/>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -21002,9 +21221,11 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G8" s="29">
-        <v>7.1874999999999982</v>
-      </c>
-      <c r="H8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H8" s="29">
+        <v>7.5208333333333313</v>
+      </c>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -21389,45 +21610,57 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="29">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="B18" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C18" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D18" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E18" s="29">
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="G18" s="29">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="29">
-        <v>1.8958333333333335</v>
-      </c>
-      <c r="C19" s="29">
-        <v>1.8125</v>
-      </c>
-      <c r="D19" s="29">
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="E19" s="29">
-        <v>1.8958333333333335</v>
+        <v>68</v>
       </c>
       <c r="F19" s="29">
         <v>0</v>
       </c>
       <c r="G19" s="29">
-        <v>7.1875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
+      <c r="A20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="29">
+        <v>1.9791666666666667</v>
+      </c>
+      <c r="C20" s="29">
+        <v>1.8958333333333333</v>
+      </c>
+      <c r="D20" s="29">
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="E20" s="29">
+        <v>1.9791666666666667</v>
+      </c>
+      <c r="F20" s="29">
+        <v>0</v>
+      </c>
+      <c r="G20" s="29">
+        <v>7.520833333333333</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21"/>

--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santu\Desktop\tracking\Drafts-Ballingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17B09A9-0CB7-4CAC-A0C6-7176B5D1ED08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE5D8F7-11F9-454A-9962-6822D60581C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId8"/>
+    <pivotCache cacheId="18" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="80">
   <si>
     <t>Tarea</t>
   </si>
@@ -263,6 +263,24 @@
   <si>
     <t>25-feb</t>
   </si>
+  <si>
+    <t>ProjectLibre</t>
+  </si>
+  <si>
+    <t>Questionnarie Done</t>
+  </si>
+  <si>
+    <t>Creating endpoints</t>
+  </si>
+  <si>
+    <t>26-feb</t>
+  </si>
+  <si>
+    <t>27-feb</t>
+  </si>
+  <si>
+    <t>Changes in backend for user creation</t>
+  </si>
 </sst>
 </file>
 
@@ -451,7 +469,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="h:mm;@"/>
     </dxf>
@@ -1025,6 +1067,19 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1198,7 +1253,7 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.6458333333333333</c:v>
+                  <c:v>1.895833333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.5624999999999998</c:v>
@@ -1207,7 +1262,7 @@
                   <c:v>1.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6458333333333333</c:v>
+                  <c:v>1.8124999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1393,16 +1448,16 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.29166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.29166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.20833333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3333333333333329E-2</c:v>
+                  <c:v>0.29166666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1616,9 +1671,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$29</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$33</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>(en blanco)</c:v>
@@ -1672,16 +1727,28 @@
                     <c:v>Started Questionarie</c:v>
                   </c:pt>
                   <c:pt idx="17">
+                    <c:v>Questionnarie Done</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Creating endpoints</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Changes in backend for user creation</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
                     <c:v>Market Analysis</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="21">
                     <c:v>SWOT Analysis</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="22">
                     <c:v>Stories</c:v>
                   </c:pt>
-                  <c:pt idx="20">
+                  <c:pt idx="23">
                     <c:v>User story estimation and priority</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>ProjectLibre</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -1694,13 +1761,13 @@
                   <c:pt idx="2">
                     <c:v>Aplication</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="20">
                     <c:v>R1</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="22">
                     <c:v>R2</c:v>
                   </c:pt>
-                  <c:pt idx="20">
+                  <c:pt idx="23">
                     <c:v>R3</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1709,10 +1776,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$29</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1765,16 +1832,28 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>0.29166666666666663</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75000000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2384,9 +2463,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$20</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2436,6 +2515,12 @@
                   <c:v>25-feb</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>26-feb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27-feb</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2443,10 +2528,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$B$3:$B$20</c:f>
+              <c:f>HOURS_PERSON_DAY!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2485,6 +2570,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.29166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2512,9 +2603,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$20</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2564,6 +2655,12 @@
                   <c:v>25-feb</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>26-feb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27-feb</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2571,10 +2668,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$C$3:$C$20</c:f>
+              <c:f>HOURS_PERSON_DAY!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2612,6 +2709,12 @@
                   <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2640,9 +2743,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$20</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2692,6 +2795,12 @@
                   <c:v>25-feb</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>26-feb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27-feb</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2699,10 +2808,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$D$3:$D$20</c:f>
+              <c:f>HOURS_PERSON_DAY!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2735,6 +2844,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2762,9 +2874,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$20</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2814,6 +2926,12 @@
                   <c:v>25-feb</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>26-feb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27-feb</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2821,10 +2939,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$E$3:$E$20</c:f>
+              <c:f>HOURS_PERSON_DAY!$E$3:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2863,6 +2981,12 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2890,9 +3014,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$20</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2942,6 +3066,12 @@
                   <c:v>25-feb</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>26-feb</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27-feb</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2949,11 +3079,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$F$3:$F$20</c:f>
+              <c:f>HOURS_PERSON_DAY!$F$3:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="16">
+                <c:ptCount val="19"/>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3143,13 +3273,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="santi sm" refreshedDate="45713.858062847219" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="santi sm" refreshedDate="45715.816149074075" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="TRACKING"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="DATE" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-02-26T00:00:00" count="17">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-02-28T00:00:00" count="19">
         <d v="2025-02-04T00:00:00"/>
         <d v="2025-02-05T00:00:00"/>
         <d v="2025-02-06T00:00:00"/>
@@ -3166,10 +3296,12 @@
         <d v="2025-02-23T00:00:00"/>
         <d v="2025-02-24T00:00:00"/>
         <d v="2025-02-25T00:00:00"/>
+        <d v="2025-02-26T00:00:00"/>
+        <d v="2025-02-27T00:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup par="7" base="0">
-        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-02-26T00:00:00"/>
+        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-02-28T00:00:00"/>
         <groupItems count="368">
           <s v="(en blanco)"/>
           <s v="01-ene"/>
@@ -3538,12 +3670,12 @@
           <s v="29-dic"/>
           <s v="30-dic"/>
           <s v="31-dic"/>
-          <s v="&gt;26/02/2025"/>
+          <s v="&gt;28/02/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="STARTING TIME" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T10:00:00" maxDate="1899-12-30T21:00:00" count="12">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T10:00:00" maxDate="1899-12-30T22:00:00" count="13">
         <d v="1899-12-30T18:00:00"/>
         <d v="1899-12-30T16:00:00"/>
         <d v="1899-12-30T10:00:00"/>
@@ -3555,10 +3687,11 @@
         <d v="1899-12-30T12:00:00"/>
         <d v="1899-12-30T14:00:00"/>
         <d v="1899-12-30T20:00:00"/>
+        <d v="1899-12-30T22:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup base="1">
-        <rangePr groupBy="hours" startDate="1899-12-30T10:00:00" endDate="1899-12-30T21:00:00"/>
+        <rangePr groupBy="hours" startDate="1899-12-30T10:00:00" endDate="1899-12-30T22:00:00"/>
         <groupItems count="26">
           <s v="(en blanco)"/>
           <s v="0"/>
@@ -3590,7 +3723,7 @@
       </fieldGroup>
     </cacheField>
     <cacheField name="FINAL TIME" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T13:00:00" maxDate="1899-12-30T23:30:00" count="11">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T00:00:00" maxDate="1899-12-30T23:30:00" count="13">
         <d v="1899-12-30T20:00:00"/>
         <d v="1899-12-30T19:00:00"/>
         <d v="1899-12-30T13:00:00"/>
@@ -3601,10 +3734,12 @@
         <d v="1899-12-30T15:00:00"/>
         <d v="1899-12-30T22:00:00"/>
         <d v="1899-12-30T14:00:00"/>
+        <d v="1899-12-30T00:00:00"/>
+        <d v="1899-12-30T17:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup par="8" base="2">
-        <rangePr groupBy="minutes" startDate="1899-12-30T13:00:00" endDate="1899-12-30T23:30:00"/>
+        <rangePr groupBy="minutes" startDate="1899-12-30T00:00:00" endDate="1899-12-30T23:30:00"/>
         <groupItems count="62">
           <s v="(en blanco)"/>
           <s v=":00"/>
@@ -3682,7 +3817,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="SUBTASK" numFmtId="0">
-      <sharedItems containsBlank="1" count="21">
+      <sharedItems containsBlank="1" count="25">
         <s v="Description"/>
         <s v="Mock - Ups"/>
         <s v="DB Structure Draft Version 1"/>
@@ -3703,6 +3838,10 @@
         <s v="Started profile screen"/>
         <s v="Started Questionarie"/>
         <s v="User story estimation and priority"/>
+        <s v="ProjectLibre"/>
+        <s v="Questionnarie Done"/>
+        <s v="Creating endpoints"/>
+        <s v="Changes in backend for user creation"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -3720,7 +3859,7 @@
     </cacheField>
     <cacheField name="Meses" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-02-26T00:00:00"/>
+        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-02-28T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;04/02/2025"/>
           <s v="ene"/>
@@ -3735,13 +3874,13 @@
           <s v="oct"/>
           <s v="nov"/>
           <s v="dic"/>
-          <s v="&gt;26/02/2025"/>
+          <s v="&gt;28/02/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="Horas" numFmtId="0" databaseField="0">
       <fieldGroup base="2">
-        <rangePr groupBy="hours" startDate="1899-12-30T13:00:00" endDate="1899-12-30T23:30:00"/>
+        <rangePr groupBy="hours" startDate="1899-12-30T00:00:00" endDate="1899-12-30T23:30:00"/>
         <groupItems count="26">
           <s v="&lt;00/01/1900"/>
           <s v="0"/>
@@ -4325,3961 +4464,3961 @@
   </r>
   <r>
     <x v="16"/>
-    <x v="11"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="20"/>
+    <x v="0"/>
+    <d v="1899-12-30T03:00:00"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="20"/>
+    <x v="1"/>
+    <d v="1899-12-30T03:00:00"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="20"/>
+    <x v="2"/>
+    <d v="1899-12-30T03:00:00"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="20"/>
+    <x v="3"/>
+    <d v="1899-12-30T03:00:00"/>
+  </r>
+  <r>
+    <x v="16"/>
     <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="3"/>
+    <d v="1899-12-30T02:00:00"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="10"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="21"/>
+    <x v="3"/>
+    <d v="1899-12-30T02:00:00"/>
   </r>
   <r>
     <x v="16"/>
     <x v="11"/>
     <x v="10"/>
-    <x v="5"/>
+    <x v="1"/>
+    <x v="22"/>
+    <x v="2"/>
+    <d v="1899-12-30T02:00:00"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
     <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
+    <x v="1"/>
+    <d v="1899-12-30T02:00:00"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="20"/>
+    <x v="2"/>
+    <d v="1899-12-30T02:00:00"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="20"/>
+    <x v="3"/>
+    <d v="1899-12-30T02:00:00"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="7"/>
     <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="2"/>
+    <d v="1899-12-30T02:00:00"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="7"/>
     <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="11"/>
-    <x v="10"/>
-    <x v="5"/>
-    <x v="20"/>
+    <x v="1"/>
+    <x v="23"/>
+    <x v="3"/>
+    <d v="1899-12-30T02:00:00"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="24"/>
     <x v="4"/>
     <m/>
   </r>
@@ -8287,8 +8426,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A1:B29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A1:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="369">
@@ -8743,8 +8882,8 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="22">
-        <item x="20"/>
+      <items count="26">
+        <item x="24"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8765,6 +8904,10 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8825,7 +8968,7 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="28">
+  <rowItems count="32">
     <i>
       <x/>
     </i>
@@ -8886,6 +9029,15 @@
     <i r="1">
       <x v="19"/>
     </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
     <i>
       <x v="3"/>
     </i>
@@ -8907,6 +9059,9 @@
     <i r="1">
       <x v="20"/>
     </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -8918,10 +9073,10 @@
     <dataField name="Suma de DURATION" fld="6" baseField="3" baseItem="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="15">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -8964,7 +9119,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
   <location ref="A1:H8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -9535,17 +9690,17 @@
     <dataField name="Suma de DURATION" fld="6" baseField="5" baseItem="2"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="13">
+    <format dxfId="21">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
-  <chartFormats count="6">
+  <chartFormats count="7">
     <chartFormat chart="2" format="30" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -9615,6 +9770,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="2" format="46" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -9626,8 +9793,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
-  <location ref="A1:G20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
+  <location ref="A1:G22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
       <items count="369">
@@ -10137,7 +10304,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="18">
+  <rowItems count="20">
     <i>
       <x v="34"/>
     </i>
@@ -10187,6 +10354,12 @@
       <x v="55"/>
     </i>
     <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
       <x v="366"/>
     </i>
     <i t="grand">
@@ -10220,13 +10393,13 @@
     <dataField name="Suma de DURATION" fld="6" baseField="0" baseItem="264"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="10">
+    <format dxfId="18">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -10709,7 +10882,7 @@
   <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10952,11 +11125,11 @@
       </c>
       <c r="F10" s="27">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G10" s="27">
         <f>IF(A10="","",SUMIF(TRACKING!D:D,A10,TRACKING!G:G))</f>
-        <v>0.33333333333333348</v>
+        <v>1.0833333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -10986,15 +11159,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="27" t="str">
+      <c r="B12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="30">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D12" s="27">
         <f>IF(B12="","",SUMIF(TRACKING!E:E,B12,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E12" s="12" t="str">
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="E12" s="12">
         <f>IF(AND(A12="",B12=""),"",COUNTIF(D$1:D12,""))</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="F12" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11101,15 +11278,15 @@
       </c>
       <c r="E17" s="12">
         <f>IF(AND(A17="",B17=""),"",COUNTIF(D$1:D17,""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="27">
         <f t="shared" si="1"/>
-        <v>3.4583333333333335</v>
+        <v>3.875</v>
       </c>
       <c r="G17" s="27">
         <f>IF(A17="","",SUMIF(TRACKING!D:D,A17,TRACKING!G:G))</f>
-        <v>6.1874999999999982</v>
+        <v>6.6041666666666634</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -11126,7 +11303,7 @@
       </c>
       <c r="E18" s="12">
         <f>IF(AND(A18="",B18=""),"",COUNTIF(D$1:D18,""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11151,7 +11328,7 @@
       </c>
       <c r="E19" s="12">
         <f>IF(AND(A19="",B19=""),"",COUNTIF(D$1:D19,""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11176,7 +11353,7 @@
       </c>
       <c r="E20" s="12">
         <f>IF(AND(A20="",B20=""),"",COUNTIF(D$1:D20,""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11201,7 +11378,7 @@
       </c>
       <c r="E21" s="12">
         <f>IF(AND(A21="",B21=""),"",COUNTIF(D$1:D21,""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11226,7 +11403,7 @@
       </c>
       <c r="E22" s="12">
         <f>IF(AND(A22="",B22=""),"",COUNTIF(D$1:D22,""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11251,7 +11428,7 @@
       </c>
       <c r="E23" s="12">
         <f>IF(AND(A23="",B23=""),"",COUNTIF(D$1:D23,""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11276,7 +11453,7 @@
       </c>
       <c r="E24" s="12">
         <f>IF(AND(A24="",B24=""),"",COUNTIF(D$1:D24,""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11301,7 +11478,7 @@
       </c>
       <c r="E25" s="12">
         <f>IF(AND(A25="",B25=""),"",COUNTIF(D$1:D25,""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11326,7 +11503,7 @@
       </c>
       <c r="E26" s="12">
         <f>IF(AND(A26="",B26=""),"",COUNTIF(D$1:D26,""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11351,7 +11528,7 @@
       </c>
       <c r="E27" s="12">
         <f>IF(AND(A27="",B27=""),"",COUNTIF(D$1:D27,""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11376,7 +11553,7 @@
       </c>
       <c r="E28" s="12">
         <f>IF(AND(A28="",B28=""),"",COUNTIF(D$1:D28,""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11401,7 +11578,7 @@
       </c>
       <c r="E29" s="12">
         <f>IF(AND(A29="",B29=""),"",COUNTIF(D$1:D29,""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11426,7 +11603,7 @@
       </c>
       <c r="E30" s="12">
         <f>IF(AND(A30="",B30=""),"",COUNTIF(D$1:D30,""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11451,7 +11628,7 @@
       </c>
       <c r="E31" s="12">
         <f>IF(AND(A31="",B31=""),"",COUNTIF(D$1:D31,""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11476,7 +11653,7 @@
       </c>
       <c r="E32" s="12">
         <f>IF(AND(A32="",B32=""),"",COUNTIF(D$1:D32,""))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11489,15 +11666,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="27" t="str">
+      <c r="B33" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="30">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D33" s="27">
         <f>IF(B33="","",SUMIF(TRACKING!E:E,B33,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E33" s="12" t="str">
+        <v>0.16666666666666652</v>
+      </c>
+      <c r="E33" s="12">
         <f>IF(AND(A33="",B33=""),"",COUNTIF(D$1:D33,""))</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="F33" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11510,15 +11691,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="27" t="str">
+      <c r="B34" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="30">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D34" s="27">
         <f>IF(B34="","",SUMIF(TRACKING!E:E,B34,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E34" s="12" t="str">
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E34" s="12">
         <f>IF(AND(A34="",B34=""),"",COUNTIF(D$1:D34,""))</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="F34" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11531,15 +11716,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="27" t="str">
+      <c r="B35" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="30">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D35" s="27">
         <f>IF(B35="","",SUMIF(TRACKING!E:E,B35,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E35" s="12" t="str">
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="E35" s="12">
         <f>IF(AND(A35="",B35=""),"",COUNTIF(D$1:D35,""))</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="F35" s="27" t="str">
         <f t="shared" si="1"/>
@@ -13976,8 +14165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15459,147 +15648,291 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="21" t="str">
+      <c r="A62" s="16">
+        <v>45714</v>
+      </c>
+      <c r="B62" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C62" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.125</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="21" t="str">
+      <c r="A63" s="16">
+        <v>45714</v>
+      </c>
+      <c r="B63" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C63" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.125</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="21" t="str">
+      <c r="A64" s="16">
+        <v>45714</v>
+      </c>
+      <c r="B64" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C64" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G64" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.125</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="21" t="str">
+      <c r="A65" s="16">
+        <v>45714</v>
+      </c>
+      <c r="B65" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C65" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="21">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.125</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="21" t="str">
+      <c r="A66" s="16">
+        <v>45714</v>
+      </c>
+      <c r="B66" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C66" s="17">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="21">
         <f t="shared" ref="G66:G129" si="1">IF(D66="","",IF(C66&gt;B66,C66-B66,C66-B66+1))</f>
-        <v/>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="21" t="str">
+      <c r="A67" s="16">
+        <v>45714</v>
+      </c>
+      <c r="B67" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C67" s="17">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="21">
         <f t="shared" si="1"/>
-        <v/>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="21" t="str">
+      <c r="A68" s="16">
+        <v>45714</v>
+      </c>
+      <c r="B68" s="17">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C68" s="17">
+        <v>0</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="21">
         <f t="shared" si="1"/>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="16"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="21" t="str">
+      <c r="A69" s="16">
+        <v>45715</v>
+      </c>
+      <c r="B69" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C69" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="21">
         <f t="shared" si="1"/>
-        <v/>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="21" t="str">
+      <c r="A70" s="16">
+        <v>45715</v>
+      </c>
+      <c r="B70" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C70" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G70" s="21">
         <f t="shared" si="1"/>
-        <v/>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="21" t="str">
+      <c r="A71" s="16">
+        <v>45715</v>
+      </c>
+      <c r="B71" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C71" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="21">
         <f t="shared" si="1"/>
-        <v/>
+        <v>8.3333333333333259E-2</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="16"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="21" t="str">
+      <c r="A72" s="16">
+        <v>45715</v>
+      </c>
+      <c r="B72" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="C72" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G72" s="21">
         <f t="shared" si="1"/>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="16"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="21" t="str">
+      <c r="A73" s="16">
+        <v>45715</v>
+      </c>
+      <c r="B73" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="C73" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="21">
         <f t="shared" si="1"/>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -20777,15 +21110,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
@@ -20835,7 +21168,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="29">
-        <v>6.1875000000000009</v>
+        <v>6.6041666666666679</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -20959,32 +21292,32 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>38</v>
+      <c r="A22" s="32" t="s">
+        <v>75</v>
       </c>
       <c r="B22" s="29">
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B23" s="29">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="B24" s="29">
-        <v>0.29166666666666663</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B25" s="29">
         <v>0.33333333333333331</v>
@@ -20992,34 +21325,66 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B26" s="29">
-        <v>0.33333333333333331</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>71</v>
+      <c r="A27" s="32" t="s">
+        <v>40</v>
       </c>
       <c r="B27" s="29">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666663</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
-        <v>72</v>
+      <c r="A28" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B28" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="29">
+        <v>1.0833333333333335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="29">
+        <v>0.75000000000000011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="29">
-        <v>7.5208333333333339</v>
+      <c r="B33" s="29">
+        <v>8.6875000000000018</v>
       </c>
     </row>
   </sheetData>
@@ -21039,7 +21404,8 @@
     <col min="2" max="2" width="11" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" customWidth="1"/>
@@ -21096,7 +21462,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D3" s="29">
-        <v>1.6458333333333333</v>
+        <v>1.895833333333333</v>
       </c>
       <c r="E3" s="29">
         <v>8.3333333333333329E-2</v>
@@ -21105,10 +21471,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G3" s="29">
-        <v>8.3333333333333329E-2</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="H3" s="29">
-        <v>1.9791666666666663</v>
+        <v>2.4374999999999996</v>
       </c>
       <c r="I3"/>
     </row>
@@ -21129,10 +21495,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G4" s="29">
-        <v>8.3333333333333329E-2</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="H4" s="29">
-        <v>1.8958333333333328</v>
+        <v>2.1041666666666661</v>
       </c>
       <c r="I4"/>
     </row>
@@ -21153,10 +21519,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G5" s="29">
-        <v>8.3333333333333329E-2</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="H5" s="29">
-        <v>1.6666666666666661</v>
+        <v>1.7916666666666661</v>
       </c>
       <c r="I5"/>
     </row>
@@ -21168,7 +21534,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D6" s="29">
-        <v>1.6458333333333333</v>
+        <v>1.8124999999999998</v>
       </c>
       <c r="E6" s="29">
         <v>8.3333333333333329E-2</v>
@@ -21177,10 +21543,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G6" s="29">
-        <v>8.3333333333333329E-2</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="H6" s="29">
-        <v>1.9791666666666663</v>
+        <v>2.3541666666666661</v>
       </c>
       <c r="I6"/>
     </row>
@@ -21212,7 +21578,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D8" s="29">
-        <v>6.1874999999999991</v>
+        <v>6.6041666666666661</v>
       </c>
       <c r="E8" s="29">
         <v>0.33333333333333331</v>
@@ -21221,10 +21587,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G8" s="29">
-        <v>0.33333333333333331</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="H8" s="29">
-        <v>7.5208333333333313</v>
+        <v>8.6874999999999982</v>
       </c>
       <c r="I8"/>
     </row>
@@ -21630,53 +21996,74 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="29">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="B19" s="29">
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="C19" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="D19" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="E19" s="29">
+        <v>0.20833333333333331</v>
       </c>
       <c r="G19" s="29">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="29">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C20" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E20" s="29">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G20" s="29">
+        <v>0.41666666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="29">
+        <v>0</v>
+      </c>
+      <c r="G21" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="29">
-        <v>1.9791666666666667</v>
-      </c>
-      <c r="C20" s="29">
-        <v>1.8958333333333333</v>
-      </c>
-      <c r="D20" s="29">
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="E20" s="29">
-        <v>1.9791666666666667</v>
-      </c>
-      <c r="F20" s="29">
+      <c r="B22" s="29">
+        <v>2.4375</v>
+      </c>
+      <c r="C22" s="29">
+        <v>2.1041666666666665</v>
+      </c>
+      <c r="D22" s="29">
+        <v>1.7916666666666665</v>
+      </c>
+      <c r="E22" s="29">
+        <v>2.3541666666666665</v>
+      </c>
+      <c r="F22" s="29">
         <v>0</v>
       </c>
-      <c r="G20" s="29">
-        <v>7.520833333333333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
+      <c r="G22" s="29">
+        <v>8.6874999999999982</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23"/>
@@ -21759,7 +22146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>

--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santu\Desktop\tracking\Drafts-Ballingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE5D8F7-11F9-454A-9962-6822D60581C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736CE6D0-3F6A-4788-8B36-18D1A85B0B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId8"/>
+    <pivotCache cacheId="9" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="81">
   <si>
     <t>Tarea</t>
   </si>
@@ -281,6 +281,9 @@
   <si>
     <t>Changes in backend for user creation</t>
   </si>
+  <si>
+    <t>Endpoints for inventory and foodbar</t>
+  </si>
 </sst>
 </file>
 
@@ -469,31 +472,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <numFmt numFmtId="164" formatCode="h:mm;@"/>
     </dxf>
@@ -1253,7 +1232,7 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.895833333333333</c:v>
+                  <c:v>2.0624999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.5624999999999998</c:v>
@@ -1262,7 +1241,7 @@
                   <c:v>1.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8124999999999998</c:v>
+                  <c:v>1.9791666666666665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,9 +1650,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$33</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$34</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>(en blanco)</c:v>
@@ -1736,18 +1715,21 @@
                     <c:v>Changes in backend for user creation</c:v>
                   </c:pt>
                   <c:pt idx="20">
+                    <c:v>Endpoints for inventory and foodbar</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
                     <c:v>Market Analysis</c:v>
                   </c:pt>
-                  <c:pt idx="21">
+                  <c:pt idx="22">
                     <c:v>SWOT Analysis</c:v>
                   </c:pt>
-                  <c:pt idx="22">
+                  <c:pt idx="23">
                     <c:v>Stories</c:v>
                   </c:pt>
-                  <c:pt idx="23">
+                  <c:pt idx="24">
                     <c:v>User story estimation and priority</c:v>
                   </c:pt>
-                  <c:pt idx="24">
+                  <c:pt idx="25">
                     <c:v>ProjectLibre</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1761,13 +1743,13 @@
                   <c:pt idx="2">
                     <c:v>Aplication</c:v>
                   </c:pt>
-                  <c:pt idx="20">
+                  <c:pt idx="21">
                     <c:v>R1</c:v>
                   </c:pt>
-                  <c:pt idx="22">
+                  <c:pt idx="23">
                     <c:v>R2</c:v>
                   </c:pt>
-                  <c:pt idx="23">
+                  <c:pt idx="24">
                     <c:v>R3</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1776,10 +1758,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$33</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1841,18 +1823,21 @@
                   <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>0.29166666666666663</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0.75000000000000011</c:v>
                 </c:pt>
               </c:numCache>
@@ -2575,7 +2560,7 @@
                   <c:v>0.29166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2986,7 +2971,7 @@
                   <c:v>0.20833333333333331</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3273,7 +3258,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="santi sm" refreshedDate="45715.816149074075" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="santi sm" refreshedDate="45716.045553240743" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="TRACKING"/>
   </cacheSource>
@@ -3723,7 +3708,7 @@
       </fieldGroup>
     </cacheField>
     <cacheField name="FINAL TIME" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T00:00:00" maxDate="1899-12-30T23:30:00" count="13">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T00:00:00" maxDate="1899-12-30T23:30:00" count="14">
         <d v="1899-12-30T20:00:00"/>
         <d v="1899-12-30T19:00:00"/>
         <d v="1899-12-30T13:00:00"/>
@@ -3736,6 +3721,7 @@
         <d v="1899-12-30T14:00:00"/>
         <d v="1899-12-30T00:00:00"/>
         <d v="1899-12-30T17:00:00"/>
+        <d v="1899-12-30T01:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup par="8" base="2">
@@ -3817,7 +3803,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="SUBTASK" numFmtId="0">
-      <sharedItems containsBlank="1" count="25">
+      <sharedItems containsBlank="1" count="26">
         <s v="Description"/>
         <s v="Mock - Ups"/>
         <s v="DB Structure Draft Version 1"/>
@@ -3842,6 +3828,7 @@
         <s v="Questionnarie Done"/>
         <s v="Creating endpoints"/>
         <s v="Changes in backend for user creation"/>
+        <s v="Endpoints for inventory and foodbar"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -4571,3854 +4558,3854 @@
     <d v="1899-12-30T02:00:00"/>
   </r>
   <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
+    <x v="17"/>
+    <x v="4"/>
+    <x v="12"/>
+    <x v="1"/>
     <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
+    <x v="3"/>
+    <d v="1899-12-30T04:00:00"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="4"/>
+    <x v="12"/>
+    <x v="1"/>
     <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="24"/>
+    <x v="2"/>
+    <d v="1899-12-30T04:00:00"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="12"/>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="25"/>
     <x v="4"/>
     <m/>
   </r>
@@ -8426,8 +8413,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A1:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A1:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="369">
@@ -8882,8 +8869,8 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="26">
-        <item x="24"/>
+      <items count="27">
+        <item x="25"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8908,6 +8895,7 @@
         <item x="21"/>
         <item x="22"/>
         <item x="23"/>
+        <item x="24"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8968,7 +8956,7 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="32">
+  <rowItems count="33">
     <i>
       <x/>
     </i>
@@ -9038,6 +9026,9 @@
     <i r="1">
       <x v="24"/>
     </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
     <i>
       <x v="3"/>
     </i>
@@ -9073,10 +9064,10 @@
     <dataField name="Suma de DURATION" fld="6" baseField="3" baseItem="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="23">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -9119,7 +9110,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
   <location ref="A1:H8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -9690,13 +9681,13 @@
     <dataField name="Suma de DURATION" fld="6" baseField="5" baseItem="2"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="21">
+    <format dxfId="13">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -9793,7 +9784,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
   <location ref="A1:G22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -10393,13 +10384,13 @@
     <dataField name="Suma de DURATION" fld="6" baseField="0" baseItem="264"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="18">
+    <format dxfId="10">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -10881,8 +10872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11282,11 +11273,11 @@
       </c>
       <c r="F17" s="27">
         <f t="shared" si="1"/>
-        <v>3.875</v>
+        <v>4.041666666666667</v>
       </c>
       <c r="G17" s="27">
         <f>IF(A17="","",SUMIF(TRACKING!D:D,A17,TRACKING!G:G))</f>
-        <v>6.6041666666666634</v>
+        <v>6.9374999999999973</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -11741,15 +11732,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="27" t="str">
+      <c r="B36" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="30">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D36" s="27">
         <f>IF(B36="","",SUMIF(TRACKING!E:E,B36,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E36" s="12" t="str">
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="E36" s="12">
         <f>IF(AND(A36="",B36=""),"",COUNTIF(D$1:D36,""))</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="F36" s="27" t="str">
         <f t="shared" si="1"/>
@@ -14166,7 +14161,7 @@
   <dimension ref="A1:H500"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15936,27 +15931,51 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="21" t="str">
+      <c r="A74" s="16">
+        <v>45715</v>
+      </c>
+      <c r="B74" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="C74" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="21">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="16"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="21" t="str">
+      <c r="A75" s="16">
+        <v>45715</v>
+      </c>
+      <c r="B75" s="17">
+        <v>0.875</v>
+      </c>
+      <c r="C75" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="21">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -21110,10 +21129,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21168,7 +21187,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="29">
-        <v>6.6041666666666679</v>
+        <v>6.9375000000000009</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -21316,75 +21335,83 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>38</v>
+      <c r="A25" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="B25" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
-        <v>39</v>
+      <c r="A26" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B26" s="29">
-        <v>4.1666666666666664E-2</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B28" s="29">
         <v>0.29166666666666663</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" s="29">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
-        <v>54</v>
       </c>
       <c r="B29" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B31" s="29">
         <v>1.0833333333333335</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="29">
-        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B33" s="29">
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="29">
-        <v>8.6875000000000018</v>
+      <c r="B34" s="29">
+        <v>9.0208333333333339</v>
       </c>
     </row>
   </sheetData>
@@ -21462,7 +21489,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D3" s="29">
-        <v>1.895833333333333</v>
+        <v>2.0624999999999996</v>
       </c>
       <c r="E3" s="29">
         <v>8.3333333333333329E-2</v>
@@ -21474,7 +21501,7 @@
         <v>0.29166666666666663</v>
       </c>
       <c r="H3" s="29">
-        <v>2.4374999999999996</v>
+        <v>2.6041666666666665</v>
       </c>
       <c r="I3"/>
     </row>
@@ -21534,7 +21561,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D6" s="29">
-        <v>1.8124999999999998</v>
+        <v>1.9791666666666665</v>
       </c>
       <c r="E6" s="29">
         <v>8.3333333333333329E-2</v>
@@ -21546,7 +21573,7 @@
         <v>0.29166666666666663</v>
       </c>
       <c r="H6" s="29">
-        <v>2.3541666666666661</v>
+        <v>2.5208333333333335</v>
       </c>
       <c r="I6"/>
     </row>
@@ -21578,7 +21605,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D8" s="29">
-        <v>6.6041666666666661</v>
+        <v>6.9374999999999982</v>
       </c>
       <c r="E8" s="29">
         <v>0.33333333333333331</v>
@@ -21590,7 +21617,7 @@
         <v>1.083333333333333</v>
       </c>
       <c r="H8" s="29">
-        <v>8.6874999999999982</v>
+        <v>9.0208333333333321</v>
       </c>
       <c r="I8"/>
     </row>
@@ -22019,16 +22046,16 @@
         <v>78</v>
       </c>
       <c r="B20" s="29">
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C20" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E20" s="29">
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G20" s="29">
-        <v>0.41666666666666663</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -22047,7 +22074,7 @@
         <v>69</v>
       </c>
       <c r="B22" s="29">
-        <v>2.4375</v>
+        <v>2.604166666666667</v>
       </c>
       <c r="C22" s="29">
         <v>2.1041666666666665</v>
@@ -22056,13 +22083,13 @@
         <v>1.7916666666666665</v>
       </c>
       <c r="E22" s="29">
-        <v>2.3541666666666665</v>
+        <v>2.5208333333333335</v>
       </c>
       <c r="F22" s="29">
         <v>0</v>
       </c>
       <c r="G22" s="29">
-        <v>8.6874999999999982</v>
+        <v>9.0208333333333321</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -22146,7 +22173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>

--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santu\Desktop\tracking\Drafts-Ballingo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaim\Desktop\Ballingo\Drafts-Ballingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736CE6D0-3F6A-4788-8B36-18D1A85B0B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6040CD1-9DB1-42D5-8AD3-DE0403E6899C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="88">
   <si>
     <t>Tarea</t>
   </si>
@@ -283,6 +283,27 @@
   </si>
   <si>
     <t>Endpoints for inventory and foodbar</t>
+  </si>
+  <si>
+    <t>Food Trade and Wardrobe endpoints</t>
+  </si>
+  <si>
+    <t>Create food trade creation logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shop update </t>
+  </si>
+  <si>
+    <t>Create trade search and trade working</t>
+  </si>
+  <si>
+    <t>28-feb</t>
+  </si>
+  <si>
+    <t>01-mar</t>
+  </si>
+  <si>
+    <t>02-mar</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1253,7 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.0624999999999996</c:v>
+                  <c:v>2.3437499999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.5624999999999998</c:v>
@@ -1241,7 +1262,7 @@
                   <c:v>1.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9791666666666665</c:v>
+                  <c:v>2.21875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1650,9 +1671,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$34</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$38</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="26"/>
+                <c:ptCount val="30"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>(en blanco)</c:v>
@@ -1718,18 +1739,30 @@
                     <c:v>Endpoints for inventory and foodbar</c:v>
                   </c:pt>
                   <c:pt idx="21">
+                    <c:v>Food Trade and Wardrobe endpoints</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Create food trade creation logic</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Shop update </c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Create trade search and trade working</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
                     <c:v>Market Analysis</c:v>
                   </c:pt>
-                  <c:pt idx="22">
+                  <c:pt idx="26">
                     <c:v>SWOT Analysis</c:v>
                   </c:pt>
-                  <c:pt idx="23">
+                  <c:pt idx="27">
                     <c:v>Stories</c:v>
                   </c:pt>
-                  <c:pt idx="24">
+                  <c:pt idx="28">
                     <c:v>User story estimation and priority</c:v>
                   </c:pt>
-                  <c:pt idx="25">
+                  <c:pt idx="29">
                     <c:v>ProjectLibre</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1743,13 +1776,13 @@
                   <c:pt idx="2">
                     <c:v>Aplication</c:v>
                   </c:pt>
-                  <c:pt idx="21">
+                  <c:pt idx="25">
                     <c:v>R1</c:v>
                   </c:pt>
-                  <c:pt idx="23">
+                  <c:pt idx="27">
                     <c:v>R2</c:v>
                   </c:pt>
-                  <c:pt idx="24">
+                  <c:pt idx="28">
                     <c:v>R3</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1758,10 +1791,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$34</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1826,18 +1859,30 @@
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0.14583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>0.29166666666666663</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="27">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="28">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="29">
                   <c:v>0.75000000000000011</c:v>
                 </c:pt>
               </c:numCache>
@@ -2448,9 +2493,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$22</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2506,6 +2551,15 @@
                   <c:v>27-feb</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>28-feb</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>01-mar</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>02-mar</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2513,10 +2567,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$B$3:$B$22</c:f>
+              <c:f>HOURS_PERSON_DAY!$B$3:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2561,6 +2615,15 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2916666666666671E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2588,9 +2651,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$22</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2646,6 +2709,15 @@
                   <c:v>27-feb</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>28-feb</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>01-mar</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>02-mar</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2653,10 +2725,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$C$3:$C$22</c:f>
+              <c:f>HOURS_PERSON_DAY!$C$3:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2728,9 +2800,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$22</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2786,6 +2858,15 @@
                   <c:v>27-feb</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>28-feb</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>01-mar</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>02-mar</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2793,10 +2874,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$D$3:$D$22</c:f>
+              <c:f>HOURS_PERSON_DAY!$D$3:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2859,9 +2940,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$22</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2917,6 +2998,15 @@
                   <c:v>27-feb</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>28-feb</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>01-mar</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>02-mar</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2924,10 +3014,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$E$3:$E$22</c:f>
+              <c:f>HOURS_PERSON_DAY!$E$3:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2972,6 +3062,15 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.2916666666666671E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2999,9 +3098,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$22</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -3057,6 +3156,15 @@
                   <c:v>27-feb</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>28-feb</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>01-mar</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>02-mar</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -3064,11 +3172,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$F$3:$F$22</c:f>
+              <c:f>HOURS_PERSON_DAY!$F$3:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="18">
+                <c:ptCount val="22"/>
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3258,13 +3366,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="santi sm" refreshedDate="45716.045553240743" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Acaymo Granado Sánchez" refreshedDate="45718.805576157407" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="TRACKING"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="DATE" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-02-28T00:00:00" count="19">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-03-03T00:00:00" count="22">
         <d v="2025-02-04T00:00:00"/>
         <d v="2025-02-05T00:00:00"/>
         <d v="2025-02-06T00:00:00"/>
@@ -3283,10 +3391,13 @@
         <d v="2025-02-25T00:00:00"/>
         <d v="2025-02-26T00:00:00"/>
         <d v="2025-02-27T00:00:00"/>
+        <d v="2025-02-28T00:00:00"/>
+        <d v="2025-03-01T00:00:00"/>
+        <d v="2025-03-02T00:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup par="7" base="0">
-        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-02-28T00:00:00"/>
+        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-03-03T00:00:00"/>
         <groupItems count="368">
           <s v="(en blanco)"/>
           <s v="01-ene"/>
@@ -3655,12 +3766,12 @@
           <s v="29-dic"/>
           <s v="30-dic"/>
           <s v="31-dic"/>
-          <s v="&gt;28/02/2025"/>
+          <s v="&gt;03/03/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="STARTING TIME" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T10:00:00" maxDate="1899-12-30T22:00:00" count="13">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T01:00:00" maxDate="1899-12-30T22:00:00" count="16">
         <d v="1899-12-30T18:00:00"/>
         <d v="1899-12-30T16:00:00"/>
         <d v="1899-12-30T10:00:00"/>
@@ -3673,10 +3784,13 @@
         <d v="1899-12-30T14:00:00"/>
         <d v="1899-12-30T20:00:00"/>
         <d v="1899-12-30T22:00:00"/>
+        <d v="1899-12-30T17:30:00"/>
+        <d v="1899-12-30T01:00:00"/>
+        <d v="1899-12-30T11:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup base="1">
-        <rangePr groupBy="hours" startDate="1899-12-30T10:00:00" endDate="1899-12-30T22:00:00"/>
+        <rangePr groupBy="hours" startDate="1899-12-30T01:00:00" endDate="1899-12-30T22:00:00"/>
         <groupItems count="26">
           <s v="(en blanco)"/>
           <s v="0"/>
@@ -3708,7 +3822,7 @@
       </fieldGroup>
     </cacheField>
     <cacheField name="FINAL TIME" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T00:00:00" maxDate="1899-12-30T23:30:00" count="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T00:00:00" maxDate="1899-12-30T23:30:00" count="16">
         <d v="1899-12-30T20:00:00"/>
         <d v="1899-12-30T19:00:00"/>
         <d v="1899-12-30T13:00:00"/>
@@ -3722,6 +3836,8 @@
         <d v="1899-12-30T00:00:00"/>
         <d v="1899-12-30T17:00:00"/>
         <d v="1899-12-30T01:00:00"/>
+        <d v="1899-12-30T19:15:00"/>
+        <d v="1899-12-30T03:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup par="8" base="2">
@@ -3803,7 +3919,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="SUBTASK" numFmtId="0">
-      <sharedItems containsBlank="1" count="26">
+      <sharedItems containsBlank="1" count="30">
         <s v="Description"/>
         <s v="Mock - Ups"/>
         <s v="DB Structure Draft Version 1"/>
@@ -3829,6 +3945,10 @@
         <s v="Creating endpoints"/>
         <s v="Changes in backend for user creation"/>
         <s v="Endpoints for inventory and foodbar"/>
+        <s v="Food Trade and Wardrobe endpoints"/>
+        <s v="Create food trade creation logic"/>
+        <s v="Shop update "/>
+        <s v="Create trade search and trade working"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -3846,7 +3966,7 @@
     </cacheField>
     <cacheField name="Meses" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-02-28T00:00:00"/>
+        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-03-03T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;04/02/2025"/>
           <s v="ene"/>
@@ -3861,7 +3981,7 @@
           <s v="oct"/>
           <s v="nov"/>
           <s v="dic"/>
-          <s v="&gt;28/02/2025"/>
+          <s v="&gt;03/03/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -4579,3833 +4699,3833 @@
     <x v="18"/>
     <x v="12"/>
     <x v="13"/>
-    <x v="5"/>
+    <x v="1"/>
     <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
+    <x v="2"/>
+    <d v="1899-12-30T01:45:00"/>
   </r>
   <r>
     <x v="18"/>
     <x v="12"/>
     <x v="13"/>
-    <x v="5"/>
+    <x v="1"/>
     <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
+    <x v="3"/>
+    <d v="1899-12-30T01:45:00"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="26"/>
+    <x v="2"/>
+    <d v="1899-12-30T02:00:00"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="26"/>
+    <x v="3"/>
+    <d v="1899-12-30T02:00:00"/>
+  </r>
+  <r>
+    <x v="20"/>
     <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="12"/>
-    <x v="13"/>
-    <x v="5"/>
-    <x v="25"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="27"/>
+    <x v="2"/>
+    <d v="1899-12-30T02:00:00"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="14"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="28"/>
+    <x v="3"/>
+    <d v="1899-12-30T03:00:00"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="15"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="29"/>
     <x v="4"/>
     <m/>
   </r>
@@ -8414,7 +8534,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A1:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A1:B38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="369">
@@ -8869,8 +8989,8 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="27">
-        <item x="25"/>
+      <items count="31">
+        <item x="29"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -8896,6 +9016,10 @@
         <item x="22"/>
         <item x="23"/>
         <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8956,7 +9080,7 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="33">
+  <rowItems count="37">
     <i>
       <x/>
     </i>
@@ -9028,6 +9152,18 @@
     </i>
     <i r="1">
       <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
     </i>
     <i>
       <x v="3"/>
@@ -9785,7 +9921,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
-  <location ref="A1:G22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:G25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
       <items count="369">
@@ -10295,7 +10431,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="20">
+  <rowItems count="23">
     <i>
       <x v="34"/>
     </i>
@@ -10349,6 +10485,15 @@
     </i>
     <i>
       <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
     </i>
     <i>
       <x v="366"/>
@@ -10872,8 +11017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11273,11 +11418,11 @@
       </c>
       <c r="F17" s="27">
         <f t="shared" si="1"/>
-        <v>4.041666666666667</v>
+        <v>4.7500000000000009</v>
       </c>
       <c r="G17" s="27">
         <f>IF(A17="","",SUMIF(TRACKING!D:D,A17,TRACKING!G:G))</f>
-        <v>6.9374999999999973</v>
+        <v>7.4583333333333304</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -11757,15 +11902,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="27" t="str">
+      <c r="B37" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="D37" s="27">
         <f>IF(B37="","",SUMIF(TRACKING!E:E,B37,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E37" s="12" t="str">
+        <v>0.14583333333333348</v>
+      </c>
+      <c r="E37" s="12">
         <f>IF(AND(A37="",B37=""),"",COUNTIF(D$1:D37,""))</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="F37" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11778,15 +11927,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="27" t="str">
+      <c r="B38" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="30">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D38" s="27">
         <f>IF(B38="","",SUMIF(TRACKING!E:E,B38,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E38" s="12" t="str">
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="E38" s="12">
         <f>IF(AND(A38="",B38=""),"",COUNTIF(D$1:D38,""))</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="F38" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11799,15 +11952,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="27" t="str">
+      <c r="B39" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="D39" s="27">
         <f>IF(B39="","",SUMIF(TRACKING!E:E,B39,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E39" s="12" t="str">
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="E39" s="12">
         <f>IF(AND(A39="",B39=""),"",COUNTIF(D$1:D39,""))</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="F39" s="27" t="str">
         <f t="shared" si="1"/>
@@ -11820,15 +11977,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="27" t="str">
+      <c r="B40" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="30">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D40" s="27">
         <f>IF(B40="","",SUMIF(TRACKING!E:E,B40,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E40" s="12" t="str">
+        <v>0.12500000000000006</v>
+      </c>
+      <c r="E40" s="12">
         <f>IF(AND(A40="",B40=""),"",COUNTIF(D$1:D40,""))</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="F40" s="27" t="str">
         <f t="shared" si="1"/>
@@ -14160,8 +14321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A55" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15979,75 +16140,147 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="21" t="str">
+      <c r="A76" s="16">
+        <v>45716</v>
+      </c>
+      <c r="B76" s="17">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C76" s="17">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="21">
         <f t="shared" si="1"/>
-        <v/>
+        <v>7.2916666666666741E-2</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="21" t="str">
+      <c r="A77" s="16">
+        <v>45716</v>
+      </c>
+      <c r="B77" s="17">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C77" s="17">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="21">
         <f t="shared" si="1"/>
-        <v/>
+        <v>7.2916666666666741E-2</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="21" t="str">
+      <c r="A78" s="16">
+        <v>45717</v>
+      </c>
+      <c r="B78" s="17">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C78" s="17">
+        <v>0</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="21">
         <f t="shared" si="1"/>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="16"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="21" t="str">
+      <c r="A79" s="16">
+        <v>45717</v>
+      </c>
+      <c r="B79" s="17">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C79" s="17">
+        <v>0</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="21">
         <f t="shared" si="1"/>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="21" t="str">
+      <c r="A80" s="34">
+        <v>45718</v>
+      </c>
+      <c r="B80" s="17">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C80" s="17">
+        <v>0.125</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="21">
         <f t="shared" si="1"/>
-        <v/>
+        <v>8.3333333333333343E-2</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="31"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="21" t="str">
+      <c r="A81" s="34">
+        <v>45718</v>
+      </c>
+      <c r="B81" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C81" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="21">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.12500000000000006</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -21129,15 +21362,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
@@ -21187,7 +21420,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="29">
-        <v>6.9375000000000009</v>
+        <v>7.4583333333333339</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -21343,75 +21576,107 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>38</v>
+      <c r="A26" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="B26" s="29">
-        <v>0.33333333333333331</v>
+        <v>0.14583333333333334</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B27" s="29">
-        <v>4.1666666666666664E-2</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="B28" s="29">
-        <v>0.29166666666666663</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>53</v>
+      <c r="A29" s="32" t="s">
+        <v>84</v>
       </c>
       <c r="B29" s="29">
-        <v>0.33333333333333331</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>54</v>
+      <c r="A30" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B30" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>71</v>
+      <c r="A31" s="32" t="s">
+        <v>39</v>
       </c>
       <c r="B31" s="29">
-        <v>1.0833333333333335</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="29">
+        <v>0.29166666666666663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="29">
+        <v>1.0833333333333335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B36" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B37" s="29">
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="29">
-        <v>9.0208333333333339</v>
+      <c r="B38" s="29">
+        <v>9.5416666666666679</v>
       </c>
     </row>
   </sheetData>
@@ -21489,7 +21754,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D3" s="29">
-        <v>2.0624999999999996</v>
+        <v>2.3437499999999996</v>
       </c>
       <c r="E3" s="29">
         <v>8.3333333333333329E-2</v>
@@ -21501,7 +21766,7 @@
         <v>0.29166666666666663</v>
       </c>
       <c r="H3" s="29">
-        <v>2.6041666666666665</v>
+        <v>2.8854166666666665</v>
       </c>
       <c r="I3"/>
     </row>
@@ -21561,7 +21826,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D6" s="29">
-        <v>1.9791666666666665</v>
+        <v>2.21875</v>
       </c>
       <c r="E6" s="29">
         <v>8.3333333333333329E-2</v>
@@ -21573,7 +21838,7 @@
         <v>0.29166666666666663</v>
       </c>
       <c r="H6" s="29">
-        <v>2.5208333333333335</v>
+        <v>2.760416666666667</v>
       </c>
       <c r="I6"/>
     </row>
@@ -21605,7 +21870,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D8" s="29">
-        <v>6.9374999999999982</v>
+        <v>7.4583333333333321</v>
       </c>
       <c r="E8" s="29">
         <v>0.33333333333333331</v>
@@ -21617,7 +21882,7 @@
         <v>1.083333333333333</v>
       </c>
       <c r="H8" s="29">
-        <v>9.0208333333333321</v>
+        <v>9.5416666666666643</v>
       </c>
       <c r="I8"/>
     </row>
@@ -22060,61 +22325,79 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="29">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="B21" s="29">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="E21" s="29">
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="G21" s="29">
-        <v>0</v>
+        <v>0.14583333333333334</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E22" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G22" s="29">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="E23" s="29">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G23" s="29">
+        <v>0.20833333333333331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="29">
+        <v>0</v>
+      </c>
+      <c r="G24" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="29">
-        <v>2.604166666666667</v>
-      </c>
-      <c r="C22" s="29">
+      <c r="B25" s="29">
+        <v>2.885416666666667</v>
+      </c>
+      <c r="C25" s="29">
         <v>2.1041666666666665</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D25" s="29">
         <v>1.7916666666666665</v>
       </c>
-      <c r="E22" s="29">
-        <v>2.5208333333333335</v>
-      </c>
-      <c r="F22" s="29">
+      <c r="E25" s="29">
+        <v>2.760416666666667</v>
+      </c>
+      <c r="F25" s="29">
         <v>0</v>
       </c>
-      <c r="G22" s="29">
-        <v>9.0208333333333321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
+      <c r="G25" s="29">
+        <v>9.5416666666666661</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26"/>

--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaim\Desktop\Ballingo\Drafts-Ballingo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6040CD1-9DB1-42D5-8AD3-DE0403E6899C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CF8EC6-09B5-49CF-9896-27B7903FA36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId8"/>
+    <pivotCache cacheId="27" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="90">
   <si>
     <t>Tarea</t>
   </si>
@@ -243,15 +243,6 @@
     <t>Started Questionarie</t>
   </si>
   <si>
-    <t>Etiquetas de fila</t>
-  </si>
-  <si>
-    <t>(en blanco)</t>
-  </si>
-  <si>
-    <t>Total general</t>
-  </si>
-  <si>
     <t>24-feb</t>
   </si>
   <si>
@@ -304,6 +295,21 @@
   </si>
   <si>
     <t>02-mar</t>
+  </si>
+  <si>
+    <t>Profile and project fixes</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>03-mar</t>
   </si>
 </sst>
 </file>
@@ -493,7 +499,55 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="32">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="h:mm;@"/>
     </dxf>
@@ -558,7 +612,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -569,7 +623,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Tracking.xlsx]HOURS_PERSON_TASK!Tabla dinámica3</c:name>
+    <c:name>[Tracking (3).xlsx]HOURS_PERSON_TASK!Tabla dinámica3</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -1096,7 +1150,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1120,7 +1174,7 @@
                   <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1176,7 +1230,7 @@
                   <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1241,7 +1295,7 @@
                   <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1256,10 +1310,10 @@
                   <c:v>2.3437499999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5624999999999998</c:v>
+                  <c:v>1.8541666666666665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.333333333333333</c:v>
+                  <c:v>1.6249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.21875</c:v>
@@ -1306,7 +1360,7 @@
                   <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1371,7 +1425,7 @@
                   <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1436,7 +1490,7 @@
                   <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1535,7 +1589,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1546,7 +1600,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Tracking.xlsx]HOURS_TASK_SUBTASK!Tabla dinámica6</c:name>
+    <c:name>[Tracking (3).xlsx]HOURS_TASK_SUBTASK!Tabla dinámica6</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -1671,12 +1725,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$38</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$39</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(en blanco)</c:v>
+                    <c:v>(blank)</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>Description</c:v>
@@ -1751,24 +1805,27 @@
                     <c:v>Create trade search and trade working</c:v>
                   </c:pt>
                   <c:pt idx="25">
+                    <c:v>Profile and project fixes</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
                     <c:v>Market Analysis</c:v>
                   </c:pt>
-                  <c:pt idx="26">
+                  <c:pt idx="27">
                     <c:v>SWOT Analysis</c:v>
                   </c:pt>
-                  <c:pt idx="27">
+                  <c:pt idx="28">
                     <c:v>Stories</c:v>
                   </c:pt>
-                  <c:pt idx="28">
+                  <c:pt idx="29">
                     <c:v>User story estimation and priority</c:v>
                   </c:pt>
-                  <c:pt idx="29">
+                  <c:pt idx="30">
                     <c:v>ProjectLibre</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(en blanco)</c:v>
+                    <c:v>(blank)</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>R0 </c:v>
@@ -1776,13 +1833,13 @@
                   <c:pt idx="2">
                     <c:v>Aplication</c:v>
                   </c:pt>
-                  <c:pt idx="25">
+                  <c:pt idx="26">
                     <c:v>R1</c:v>
                   </c:pt>
-                  <c:pt idx="27">
+                  <c:pt idx="28">
                     <c:v>R2</c:v>
                   </c:pt>
-                  <c:pt idx="28">
+                  <c:pt idx="29">
                     <c:v>R3</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1791,10 +1848,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$38</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1871,18 +1928,21 @@
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>0.29166666666666663</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0.75000000000000011</c:v>
                 </c:pt>
               </c:numCache>
@@ -1956,7 +2016,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1967,7 +2027,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Tracking.xlsx]HOURS_PERSON_DAY!Tabla dinámica3</c:name>
+    <c:name>[Tracking (3).xlsx]HOURS_PERSON_DAY!Tabla dinámica3</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -2493,9 +2553,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$25</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2560,17 +2620,20 @@
                   <c:v>02-mar</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>03-mar</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$B$3:$B$25</c:f>
+              <c:f>HOURS_PERSON_DAY!$B$3:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2651,9 +2714,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$25</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2718,17 +2781,20 @@
                   <c:v>02-mar</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>03-mar</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$C$3:$C$25</c:f>
+              <c:f>HOURS_PERSON_DAY!$C$3:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2773,6 +2839,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.29166666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2800,9 +2869,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$25</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2867,17 +2936,20 @@
                   <c:v>02-mar</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>03-mar</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$D$3:$D$25</c:f>
+              <c:f>HOURS_PERSON_DAY!$D$3:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2913,6 +2985,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.29166666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2940,9 +3015,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$25</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -3007,17 +3082,20 @@
                   <c:v>02-mar</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>03-mar</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$E$3:$E$25</c:f>
+              <c:f>HOURS_PERSON_DAY!$E$3:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -3090,7 +3168,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3098,9 +3176,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$25</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -3165,18 +3243,21 @@
                   <c:v>02-mar</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>(en blanco)</c:v>
+                  <c:v>03-mar</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$F$3:$F$25</c:f>
+              <c:f>HOURS_PERSON_DAY!$F$3:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="21">
+                <c:ptCount val="23"/>
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3366,13 +3447,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Acaymo Granado Sánchez" refreshedDate="45718.805576157407" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paula Rosa Rodríguez Morales" refreshedDate="45719.828566203701" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="TRACKING"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="DATE" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-03-03T00:00:00" count="22">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-03-04T00:00:00" count="23">
         <d v="2025-02-04T00:00:00"/>
         <d v="2025-02-05T00:00:00"/>
         <d v="2025-02-06T00:00:00"/>
@@ -3394,12 +3475,13 @@
         <d v="2025-02-28T00:00:00"/>
         <d v="2025-03-01T00:00:00"/>
         <d v="2025-03-02T00:00:00"/>
+        <d v="2025-03-03T00:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup par="7" base="0">
-        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-03-03T00:00:00"/>
+        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-03-04T00:00:00"/>
         <groupItems count="368">
-          <s v="(en blanco)"/>
+          <s v="(blank)"/>
           <s v="01-ene"/>
           <s v="02-ene"/>
           <s v="03-ene"/>
@@ -3766,12 +3848,12 @@
           <s v="29-dic"/>
           <s v="30-dic"/>
           <s v="31-dic"/>
-          <s v="&gt;03/03/2025"/>
+          <s v="&gt;04/03/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="STARTING TIME" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T01:00:00" maxDate="1899-12-30T22:00:00" count="16">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T01:00:00" maxDate="1899-12-30T22:00:00" count="17">
         <d v="1899-12-30T18:00:00"/>
         <d v="1899-12-30T16:00:00"/>
         <d v="1899-12-30T10:00:00"/>
@@ -3787,12 +3869,13 @@
         <d v="1899-12-30T17:30:00"/>
         <d v="1899-12-30T01:00:00"/>
         <d v="1899-12-30T11:00:00"/>
+        <d v="1899-12-30T13:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup base="1">
         <rangePr groupBy="hours" startDate="1899-12-30T01:00:00" endDate="1899-12-30T22:00:00"/>
         <groupItems count="26">
-          <s v="(en blanco)"/>
+          <s v="(blank)"/>
           <s v="0"/>
           <s v="1"/>
           <s v="2"/>
@@ -3843,7 +3926,7 @@
       <fieldGroup par="8" base="2">
         <rangePr groupBy="minutes" startDate="1899-12-30T00:00:00" endDate="1899-12-30T23:30:00"/>
         <groupItems count="62">
-          <s v="(en blanco)"/>
+          <s v="(blank)"/>
           <s v=":00"/>
           <s v=":01"/>
           <s v=":02"/>
@@ -3919,7 +4002,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="SUBTASK" numFmtId="0">
-      <sharedItems containsBlank="1" count="30">
+      <sharedItems containsBlank="1" count="31">
         <s v="Description"/>
         <s v="Mock - Ups"/>
         <s v="DB Structure Draft Version 1"/>
@@ -3949,6 +4032,7 @@
         <s v="Create food trade creation logic"/>
         <s v="Shop update "/>
         <s v="Create trade search and trade working"/>
+        <s v="Profile and project fixes"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -3966,7 +4050,7 @@
     </cacheField>
     <cacheField name="Meses" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-03-03T00:00:00"/>
+        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-03-04T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;04/02/2025"/>
           <s v="ene"/>
@@ -3981,7 +4065,7 @@
           <s v="oct"/>
           <s v="nov"/>
           <s v="dic"/>
-          <s v="&gt;03/03/2025"/>
+          <s v="&gt;04/03/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -4752,3780 +4836,3780 @@
   <r>
     <x v="21"/>
     <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
+    <x v="0"/>
+    <d v="1899-12-30T07:00:00"/>
   </r>
   <r>
     <x v="21"/>
     <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="29"/>
+    <x v="1"/>
+    <d v="1899-12-30T07:00:00"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="30"/>
     <x v="4"/>
     <m/>
   </r>
@@ -8533,8 +8617,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A1:B38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A1:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="369">
@@ -8989,8 +9073,8 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="31">
-        <item x="29"/>
+      <items count="32">
+        <item x="30"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9020,6 +9104,7 @@
         <item x="26"/>
         <item x="27"/>
         <item x="28"/>
+        <item x="29"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9080,7 +9165,7 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="37">
+  <rowItems count="38">
     <i>
       <x/>
     </i>
@@ -9165,6 +9250,9 @@
     <i r="1">
       <x v="29"/>
     </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
     <i>
       <x v="3"/>
     </i>
@@ -9200,10 +9288,10 @@
     <dataField name="Suma de DURATION" fld="6" baseField="3" baseItem="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="15">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -9246,7 +9334,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
   <location ref="A1:H8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -9817,13 +9905,13 @@
     <dataField name="Suma de DURATION" fld="6" baseField="5" baseItem="2"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="13">
+    <format dxfId="29">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -9920,8 +10008,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
-  <location ref="A1:G25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
+  <location ref="A1:G26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
       <items count="369">
@@ -10431,7 +10519,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="24">
     <i>
       <x v="34"/>
     </i>
@@ -10496,6 +10584,9 @@
       <x v="61"/>
     </i>
     <i>
+      <x v="62"/>
+    </i>
+    <i>
       <x v="366"/>
     </i>
     <i t="grand">
@@ -10529,13 +10620,13 @@
     <dataField name="Suma de DURATION" fld="6" baseField="0" baseItem="264"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="10">
+    <format dxfId="26">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -10921,7 +11012,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
@@ -11017,11 +11108,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" style="10" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" style="10" customWidth="1"/>
@@ -11247,7 +11338,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="30"/>
@@ -11271,7 +11362,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C11" s="30">
         <v>0.33333333333333331</v>
@@ -11296,7 +11387,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" s="30">
         <v>0.33333333333333331</v>
@@ -11418,11 +11509,11 @@
       </c>
       <c r="F17" s="27">
         <f t="shared" si="1"/>
-        <v>4.7500000000000009</v>
+        <v>4.9166666666666679</v>
       </c>
       <c r="G17" s="27">
         <f>IF(A17="","",SUMIF(TRACKING!D:D,A17,TRACKING!G:G))</f>
-        <v>7.4583333333333304</v>
+        <v>8.0416666666666643</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -11803,7 +11894,7 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C33" s="30">
         <v>0.16666666666666666</v>
@@ -11828,7 +11919,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C34" s="30">
         <v>8.3333333333333329E-2</v>
@@ -11853,7 +11944,7 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C35" s="30">
         <v>0.16666666666666666</v>
@@ -11878,7 +11969,7 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C36" s="30">
         <v>0.16666666666666666</v>
@@ -11903,7 +11994,7 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C37" s="30">
         <v>0.25</v>
@@ -11928,7 +12019,7 @@
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C38" s="30">
         <v>0.16666666666666666</v>
@@ -11953,7 +12044,7 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C39" s="30">
         <v>0.125</v>
@@ -11978,7 +12069,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="B40" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C40" s="30">
         <v>0.16666666666666666</v>
@@ -12002,15 +12093,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="27" t="str">
+      <c r="B41" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="30">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D41" s="27">
         <f>IF(B41="","",SUMIF(TRACKING!E:E,B41,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E41" s="12" t="str">
+        <v>0.58333333333333348</v>
+      </c>
+      <c r="E41" s="12">
         <f>IF(AND(A41="",B41=""),"",COUNTIF(D$1:D41,""))</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="F41" s="27" t="str">
         <f t="shared" si="1"/>
@@ -14321,11 +14416,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="18" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="19" bestFit="1" customWidth="1"/>
@@ -15718,10 +15813,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>19</v>
@@ -15742,10 +15837,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>22</v>
@@ -15766,10 +15861,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>26</v>
@@ -15790,10 +15885,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>24</v>
@@ -15814,10 +15909,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D62" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>19</v>
@@ -15838,10 +15933,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D63" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>22</v>
@@ -15862,10 +15957,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D64" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>24</v>
@@ -15886,10 +15981,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="D65" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>26</v>
@@ -15913,7 +16008,7 @@
         <v>32</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>26</v>
@@ -15937,7 +16032,7 @@
         <v>32</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>26</v>
@@ -15961,7 +16056,7 @@
         <v>32</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>24</v>
@@ -15982,10 +16077,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D69" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>22</v>
@@ -16006,10 +16101,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D70" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>24</v>
@@ -16030,10 +16125,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="D71" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="F71" s="9" t="s">
         <v>26</v>
@@ -16057,7 +16152,7 @@
         <v>32</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>24</v>
@@ -16081,7 +16176,7 @@
         <v>32</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>26</v>
@@ -16105,7 +16200,7 @@
         <v>32</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>26</v>
@@ -16129,7 +16224,7 @@
         <v>32</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>24</v>
@@ -16153,7 +16248,7 @@
         <v>32</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>24</v>
@@ -16177,7 +16272,7 @@
         <v>32</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>26</v>
@@ -16201,7 +16296,7 @@
         <v>32</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>24</v>
@@ -16225,7 +16320,7 @@
         <v>32</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>26</v>
@@ -16249,7 +16344,7 @@
         <v>32</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>24</v>
@@ -16273,7 +16368,7 @@
         <v>32</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F81" s="9" t="s">
         <v>26</v>
@@ -16284,27 +16379,51 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="31"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="21" t="str">
+      <c r="A82" s="34">
+        <v>45719</v>
+      </c>
+      <c r="B82" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C82" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="21">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.29166666666666674</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="21" t="str">
+      <c r="A83" s="16">
+        <v>45719</v>
+      </c>
+      <c r="B83" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C83" s="17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G83" s="21">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.29166666666666674</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -21362,22 +21481,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B19"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" dimension="1" start="17" min="4" max="28" activeRow="18" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4" count="1">
+              <x v="17"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>18</v>
@@ -21385,7 +21513,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B2" s="29">
         <v>0</v>
@@ -21393,7 +21521,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B3" s="29">
         <v>0</v>
@@ -21420,7 +21548,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="29">
-        <v>7.4583333333333339</v>
+        <v>8.0416666666666679</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -21545,7 +21673,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B22" s="29">
         <v>0.16666666666666666</v>
@@ -21553,7 +21681,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B23" s="29">
         <v>8.3333333333333329E-2</v>
@@ -21561,7 +21689,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B24" s="29">
         <v>0.16666666666666666</v>
@@ -21569,7 +21697,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B25" s="29">
         <v>0.33333333333333331</v>
@@ -21577,7 +21705,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B26" s="29">
         <v>0.14583333333333334</v>
@@ -21585,7 +21713,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B27" s="29">
         <v>0.16666666666666666</v>
@@ -21593,7 +21721,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B28" s="29">
         <v>8.3333333333333329E-2</v>
@@ -21601,82 +21729,90 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B29" s="29">
         <v>0.125</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="29">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B31" s="29">
         <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="29">
-        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="29">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B33" s="29">
         <v>0.29166666666666663</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B33" s="29">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
-        <v>54</v>
       </c>
       <c r="B34" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>71</v>
+      <c r="A35" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="B35" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="29">
         <v>1.0833333333333335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="29">
-        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B37" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="29">
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="29">
-        <v>9.5416666666666679</v>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="29">
+        <v>10.125</v>
       </c>
     </row>
   </sheetData>
@@ -21690,15 +21826,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" customWidth="1"/>
@@ -21721,10 +21857,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -21739,10 +21875,10 @@
         <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="I2"/>
     </row>
@@ -21778,7 +21914,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D4" s="29">
-        <v>1.5624999999999998</v>
+        <v>1.8541666666666665</v>
       </c>
       <c r="E4" s="29">
         <v>8.3333333333333329E-2</v>
@@ -21790,7 +21926,7 @@
         <v>0.29166666666666663</v>
       </c>
       <c r="H4" s="29">
-        <v>2.1041666666666661</v>
+        <v>2.395833333333333</v>
       </c>
       <c r="I4"/>
     </row>
@@ -21802,7 +21938,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D5" s="29">
-        <v>1.333333333333333</v>
+        <v>1.6249999999999998</v>
       </c>
       <c r="E5" s="29">
         <v>8.3333333333333329E-2</v>
@@ -21814,7 +21950,7 @@
         <v>0.20833333333333331</v>
       </c>
       <c r="H5" s="29">
-        <v>1.7916666666666661</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="I5"/>
     </row>
@@ -21844,7 +21980,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B7" s="29">
         <v>0</v>
@@ -21861,7 +21997,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B8" s="29">
         <v>0</v>
@@ -21870,7 +22006,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D8" s="29">
-        <v>7.4583333333333321</v>
+        <v>8.0416666666666661</v>
       </c>
       <c r="E8" s="29">
         <v>0.33333333333333331</v>
@@ -21882,7 +22018,7 @@
         <v>1.083333333333333</v>
       </c>
       <c r="H8" s="29">
-        <v>9.5416666666666643</v>
+        <v>10.125</v>
       </c>
       <c r="I8"/>
     </row>
@@ -21957,18 +22093,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:CZ31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
     <col min="8" max="104" width="11.42578125" style="29"/>
   </cols>
   <sheetData>
@@ -21987,7 +22121,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -22002,10 +22136,10 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -22254,7 +22388,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B17" s="29">
         <v>0.125</v>
@@ -22268,7 +22402,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B18" s="29">
         <v>8.3333333333333329E-2</v>
@@ -22288,7 +22422,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B19" s="29">
         <v>0.29166666666666663</v>
@@ -22308,7 +22442,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B20" s="29">
         <v>0.33333333333333331</v>
@@ -22325,7 +22459,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B21" s="29">
         <v>7.2916666666666671E-2</v>
@@ -22339,7 +22473,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B22" s="29">
         <v>8.3333333333333329E-2</v>
@@ -22353,7 +22487,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B23" s="29">
         <v>0.125</v>
@@ -22367,45 +22501,51 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="29">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="C24" s="29">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D24" s="29">
+        <v>0.29166666666666669</v>
       </c>
       <c r="G24" s="29">
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="29">
-        <v>2.885416666666667</v>
-      </c>
-      <c r="C25" s="29">
-        <v>2.1041666666666665</v>
-      </c>
-      <c r="D25" s="29">
-        <v>1.7916666666666665</v>
-      </c>
-      <c r="E25" s="29">
-        <v>2.760416666666667</v>
+        <v>87</v>
       </c>
       <c r="F25" s="29">
         <v>0</v>
       </c>
       <c r="G25" s="29">
-        <v>9.5416666666666661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
+      <c r="A26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="29">
+        <v>2.885416666666667</v>
+      </c>
+      <c r="C26" s="29">
+        <v>2.395833333333333</v>
+      </c>
+      <c r="D26" s="29">
+        <v>2.083333333333333</v>
+      </c>
+      <c r="E26" s="29">
+        <v>2.760416666666667</v>
+      </c>
+      <c r="F26" s="29">
+        <v>0</v>
+      </c>
+      <c r="G26" s="29">
+        <v>10.125</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27"/>
@@ -22460,7 +22600,7 @@
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaim\Desktop\Ballingo\Drafts-Ballingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CF8EC6-09B5-49CF-9896-27B7903FA36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F13C8F3-A646-48B6-BD73-2D2230F19A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="27" r:id="rId8"/>
+    <pivotCache cacheId="18" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="91">
   <si>
     <t>Tarea</t>
   </si>
@@ -300,16 +300,19 @@
     <t>Profile and project fixes</t>
   </si>
   <si>
-    <t>Row Labels</t>
+    <t>03-mar</t>
   </si>
   <si>
-    <t>(blank)</t>
+    <t>Pet creation</t>
   </si>
   <si>
-    <t>Grand Total</t>
+    <t>Etiquetas de fila</t>
   </si>
   <si>
-    <t>03-mar</t>
+    <t>(en blanco)</t>
+  </si>
+  <si>
+    <t>Total general</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -483,9 +486,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -499,31 +499,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <numFmt numFmtId="164" formatCode="h:mm;@"/>
     </dxf>
@@ -612,7 +588,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -623,7 +599,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Tracking (3).xlsx]HOURS_PERSON_TASK!Tabla dinámica3</c:name>
+    <c:name>[Tracking.xlsx]HOURS_PERSON_TASK!Tabla dinámica3</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -1150,7 +1126,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1174,7 +1150,7 @@
                   <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1230,7 +1206,7 @@
                   <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1295,7 +1271,7 @@
                   <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1307,7 +1283,7 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.3437499999999996</c:v>
+                  <c:v>2.552083333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.8541666666666665</c:v>
@@ -1316,7 +1292,7 @@
                   <c:v>1.6249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.21875</c:v>
+                  <c:v>2.4270833333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1360,7 +1336,7 @@
                   <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1425,7 +1401,7 @@
                   <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1490,7 +1466,7 @@
                   <c:v>Santiago</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1589,7 +1565,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1600,7 +1576,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Tracking (3).xlsx]HOURS_TASK_SUBTASK!Tabla dinámica6</c:name>
+    <c:name>[Tracking.xlsx]HOURS_TASK_SUBTASK!Tabla dinámica6</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -1725,12 +1701,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$39</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$40</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(blank)</c:v>
+                    <c:v>(en blanco)</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>Description</c:v>
@@ -1808,24 +1784,27 @@
                     <c:v>Profile and project fixes</c:v>
                   </c:pt>
                   <c:pt idx="26">
+                    <c:v>Pet creation</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
                     <c:v>Market Analysis</c:v>
                   </c:pt>
-                  <c:pt idx="27">
+                  <c:pt idx="28">
                     <c:v>SWOT Analysis</c:v>
                   </c:pt>
-                  <c:pt idx="28">
+                  <c:pt idx="29">
                     <c:v>Stories</c:v>
                   </c:pt>
-                  <c:pt idx="29">
+                  <c:pt idx="30">
                     <c:v>User story estimation and priority</c:v>
                   </c:pt>
-                  <c:pt idx="30">
+                  <c:pt idx="31">
                     <c:v>ProjectLibre</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>(blank)</c:v>
+                    <c:v>(en blanco)</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>R0 </c:v>
@@ -1833,13 +1812,13 @@
                   <c:pt idx="2">
                     <c:v>Aplication</c:v>
                   </c:pt>
-                  <c:pt idx="26">
+                  <c:pt idx="27">
                     <c:v>R1</c:v>
                   </c:pt>
-                  <c:pt idx="28">
+                  <c:pt idx="29">
                     <c:v>R2</c:v>
                   </c:pt>
-                  <c:pt idx="29">
+                  <c:pt idx="30">
                     <c:v>R3</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1848,10 +1827,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$39</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1931,18 +1910,21 @@
                   <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>0.29166666666666663</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0.75000000000000011</c:v>
                 </c:pt>
               </c:numCache>
@@ -2016,7 +1998,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2027,7 +2009,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Tracking (3).xlsx]HOURS_PERSON_DAY!Tabla dinámica3</c:name>
+    <c:name>[Tracking.xlsx]HOURS_PERSON_DAY!Tabla dinámica3</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -2623,7 +2605,7 @@
                   <c:v>03-mar</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2687,6 +2669,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20833333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2784,7 +2769,7 @@
                   <c:v>03-mar</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2939,7 +2924,7 @@
                   <c:v>03-mar</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3085,7 +3070,7 @@
                   <c:v>03-mar</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3149,6 +3134,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20833333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3168,7 +3156,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3246,7 +3234,7 @@
                   <c:v>03-mar</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>(blank)</c:v>
+                  <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3447,12 +3435,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Paula Rosa Rodríguez Morales" refreshedDate="45719.828566203701" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Acaymo Granado Sánchez" refreshedDate="45720.954474999999" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="TRACKING"/>
   </cacheSource>
   <cacheFields count="9">
-    <cacheField name="DATE" numFmtId="0">
+    <cacheField name="DATE" numFmtId="14">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-03-04T00:00:00" count="23">
         <d v="2025-02-04T00:00:00"/>
         <d v="2025-02-05T00:00:00"/>
@@ -3481,7 +3469,7 @@
       <fieldGroup par="7" base="0">
         <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-03-04T00:00:00"/>
         <groupItems count="368">
-          <s v="(blank)"/>
+          <s v="(en blanco)"/>
           <s v="01-ene"/>
           <s v="02-ene"/>
           <s v="03-ene"/>
@@ -3875,7 +3863,7 @@
       <fieldGroup base="1">
         <rangePr groupBy="hours" startDate="1899-12-30T01:00:00" endDate="1899-12-30T22:00:00"/>
         <groupItems count="26">
-          <s v="(blank)"/>
+          <s v="(en blanco)"/>
           <s v="0"/>
           <s v="1"/>
           <s v="2"/>
@@ -3926,7 +3914,7 @@
       <fieldGroup par="8" base="2">
         <rangePr groupBy="minutes" startDate="1899-12-30T00:00:00" endDate="1899-12-30T23:30:00"/>
         <groupItems count="62">
-          <s v="(blank)"/>
+          <s v="(en blanco)"/>
           <s v=":00"/>
           <s v=":01"/>
           <s v=":02"/>
@@ -4002,7 +3990,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="SUBTASK" numFmtId="0">
-      <sharedItems containsBlank="1" count="31">
+      <sharedItems containsBlank="1" count="32">
         <s v="Description"/>
         <s v="Mock - Ups"/>
         <s v="DB Structure Draft Version 1"/>
@@ -4033,6 +4021,7 @@
         <s v="Shop update "/>
         <s v="Create trade search and trade working"/>
         <s v="Profile and project fixes"/>
+        <s v="Pet creation"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -4852,3764 +4841,3764 @@
     <d v="1899-12-30T07:00:00"/>
   </r>
   <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
+    <x v="21"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="1"/>
     <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
+    <x v="2"/>
+    <d v="1899-12-30T05:00:00"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="1"/>
     <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="30"/>
+    <x v="3"/>
+    <d v="1899-12-30T05:00:00"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
+    <x v="4"/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="16"/>
+    <x v="15"/>
+    <x v="5"/>
+    <x v="31"/>
     <x v="4"/>
     <m/>
   </r>
@@ -8617,8 +8606,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A1:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000001000000}" name="Tabla dinámica6" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A1:B40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="369">
@@ -8988,8 +8977,8 @@
         <item x="364"/>
         <item x="365"/>
         <item x="366"/>
+        <item x="367"/>
         <item x="0"/>
-        <item x="367"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9073,8 +9062,8 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="32">
-        <item x="30"/>
+      <items count="33">
+        <item x="31"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9105,6 +9094,7 @@
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
+        <item x="30"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9165,7 +9155,7 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="38">
+  <rowItems count="39">
     <i>
       <x/>
     </i>
@@ -9253,6 +9243,9 @@
     <i r="1">
       <x v="30"/>
     </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
     <i>
       <x v="3"/>
     </i>
@@ -9288,10 +9281,10 @@
     <dataField name="Suma de DURATION" fld="6" baseField="3" baseItem="4"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="31">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -9334,7 +9327,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="Tabla dinámica3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Tarea">
   <location ref="A1:H8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -9705,8 +9698,8 @@
         <item x="364"/>
         <item x="365"/>
         <item x="366"/>
+        <item x="367"/>
         <item x="0"/>
-        <item x="367"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9905,13 +9898,13 @@
     <dataField name="Suma de DURATION" fld="6" baseField="5" baseItem="2"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="29">
+    <format dxfId="21">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -10008,7 +10001,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabla dinámica3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" colHeaderCaption="Miembro">
   <location ref="A1:G26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -10379,8 +10372,8 @@
         <item x="364"/>
         <item x="365"/>
         <item x="366"/>
+        <item x="367"/>
         <item x="0"/>
-        <item x="367"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10587,7 +10580,7 @@
       <x v="62"/>
     </i>
     <i>
-      <x v="366"/>
+      <x v="367"/>
     </i>
     <i t="grand">
       <x/>
@@ -10620,13 +10613,13 @@
     <dataField name="Suma de DURATION" fld="6" baseField="0" baseItem="264"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="26">
+    <format dxfId="18">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -11012,7 +11005,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
@@ -11108,11 +11101,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" style="10" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" style="10" customWidth="1"/>
@@ -11509,11 +11502,11 @@
       </c>
       <c r="F17" s="27">
         <f t="shared" si="1"/>
-        <v>4.9166666666666679</v>
+        <v>5.2500000000000009</v>
       </c>
       <c r="G17" s="27">
         <f>IF(A17="","",SUMIF(TRACKING!D:D,A17,TRACKING!G:G))</f>
-        <v>8.0416666666666643</v>
+        <v>8.4583333333333321</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -12118,15 +12111,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="27" t="str">
+      <c r="B42" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="30">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D42" s="27">
         <f>IF(B42="","",SUMIF(TRACKING!E:E,B42,TRACKING!G:G))</f>
-        <v/>
-      </c>
-      <c r="E42" s="12" t="str">
+        <v>0.41666666666666652</v>
+      </c>
+      <c r="E42" s="12">
         <f>IF(AND(A42="",B42=""),"",COUNTIF(D$1:D42,""))</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="F42" s="27" t="str">
         <f t="shared" si="1"/>
@@ -14416,11 +14413,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" style="18" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="19" bestFit="1" customWidth="1"/>
@@ -15155,7 +15152,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
+      <c r="A31" s="32">
         <v>45703</v>
       </c>
       <c r="B31" s="17">
@@ -15707,7 +15704,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="34">
+      <c r="A54" s="33">
         <v>45711</v>
       </c>
       <c r="B54" s="17">
@@ -16331,7 +16328,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="34">
+      <c r="A80" s="33">
         <v>45718</v>
       </c>
       <c r="B80" s="17">
@@ -16355,7 +16352,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="34">
+      <c r="A81" s="33">
         <v>45718</v>
       </c>
       <c r="B81" s="17">
@@ -16379,7 +16376,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="34">
+      <c r="A82" s="33">
         <v>45719</v>
       </c>
       <c r="B82" s="17">
@@ -16427,27 +16424,51 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="21" t="str">
+      <c r="A84" s="33">
+        <v>45719</v>
+      </c>
+      <c r="B84" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C84" s="17">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" s="21">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.20833333333333326</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="21" t="str">
+      <c r="A85" s="16">
+        <v>45719</v>
+      </c>
+      <c r="B85" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C85" s="17">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="21">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.20833333333333326</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -21481,31 +21502,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:B19"/>
-      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" dimension="1" start="17" min="4" max="28" activeRow="18" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4" count="1">
-              <x v="17"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>18</v>
@@ -21513,15 +21525,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>87</v>
+      <c r="A3" s="31" t="s">
+        <v>89</v>
       </c>
       <c r="B3" s="29">
         <v>0</v>
@@ -21536,7 +21548,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="29">
@@ -21548,11 +21560,11 @@
         <v>32</v>
       </c>
       <c r="B6" s="29">
-        <v>8.0416666666666679</v>
+        <v>8.4583333333333339</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="29">
@@ -21560,7 +21572,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="29">
@@ -21568,7 +21580,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="29">
@@ -21576,7 +21588,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="31" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="29">
@@ -21584,7 +21596,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="29">
@@ -21592,7 +21604,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="29">
@@ -21600,7 +21612,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="29">
@@ -21608,7 +21620,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="29">
@@ -21616,7 +21628,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="31" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="29">
@@ -21624,7 +21636,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="29">
@@ -21632,7 +21644,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="31" t="s">
         <v>60</v>
       </c>
       <c r="B17" s="29">
@@ -21640,7 +21652,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="31" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="29">
@@ -21648,7 +21660,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>62</v>
       </c>
       <c r="B19" s="29">
@@ -21656,7 +21668,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="29">
@@ -21664,7 +21676,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="29">
@@ -21672,7 +21684,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="31" t="s">
         <v>72</v>
       </c>
       <c r="B22" s="29">
@@ -21680,7 +21692,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>73</v>
       </c>
       <c r="B23" s="29">
@@ -21688,7 +21700,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
         <v>76</v>
       </c>
       <c r="B24" s="29">
@@ -21696,7 +21708,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="31" t="s">
         <v>77</v>
       </c>
       <c r="B25" s="29">
@@ -21704,7 +21716,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>78</v>
       </c>
       <c r="B26" s="29">
@@ -21712,7 +21724,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="31" t="s">
         <v>79</v>
       </c>
       <c r="B27" s="29">
@@ -21720,7 +21732,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="31" t="s">
         <v>80</v>
       </c>
       <c r="B28" s="29">
@@ -21728,7 +21740,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B29" s="29">
@@ -21736,7 +21748,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="31" t="s">
         <v>85</v>
       </c>
       <c r="B30" s="29">
@@ -21744,75 +21756,83 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="29">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B32" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B33" s="29">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="29">
+      <c r="B34" s="29">
         <v>0.29166666666666663</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B34" s="29">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
-        <v>54</v>
       </c>
       <c r="B35" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="29">
+      <c r="B37" s="29">
         <v>1.0833333333333335</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="29">
+      <c r="B38" s="29">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="29">
+      <c r="B39" s="29">
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="29">
-        <v>10.125</v>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="29">
+        <v>10.541666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -21824,17 +21844,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" customWidth="1"/>
@@ -21857,10 +21879,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -21878,7 +21900,7 @@
         <v>68</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I2"/>
     </row>
@@ -21890,7 +21912,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D3" s="29">
-        <v>2.3437499999999996</v>
+        <v>2.552083333333333</v>
       </c>
       <c r="E3" s="29">
         <v>8.3333333333333329E-2</v>
@@ -21902,7 +21924,7 @@
         <v>0.29166666666666663</v>
       </c>
       <c r="H3" s="29">
-        <v>2.8854166666666665</v>
+        <v>3.09375</v>
       </c>
       <c r="I3"/>
     </row>
@@ -21962,7 +21984,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="D6" s="29">
-        <v>2.21875</v>
+        <v>2.4270833333333335</v>
       </c>
       <c r="E6" s="29">
         <v>8.3333333333333329E-2</v>
@@ -21974,13 +21996,13 @@
         <v>0.29166666666666663</v>
       </c>
       <c r="H6" s="29">
-        <v>2.760416666666667</v>
+        <v>2.9687500000000004</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B7" s="29">
         <v>0</v>
@@ -21997,7 +22019,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B8" s="29">
         <v>0</v>
@@ -22006,7 +22028,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D8" s="29">
-        <v>8.0416666666666661</v>
+        <v>8.4583333333333339</v>
       </c>
       <c r="E8" s="29">
         <v>0.33333333333333331</v>
@@ -22018,7 +22040,7 @@
         <v>1.083333333333333</v>
       </c>
       <c r="H8" s="29">
-        <v>10.125</v>
+        <v>10.541666666666666</v>
       </c>
       <c r="I8"/>
     </row>
@@ -22095,14 +22117,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="29" bestFit="1" customWidth="1"/>
     <col min="8" max="104" width="11.42578125" style="29"/>
   </cols>
   <sheetData>
@@ -22121,7 +22143,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
@@ -22136,10 +22158,10 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -22501,7 +22523,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="B24" s="29">
+        <v>0.20833333333333334</v>
       </c>
       <c r="C24" s="29">
         <v>0.29166666666666669</v>
@@ -22509,13 +22534,16 @@
       <c r="D24" s="29">
         <v>0.29166666666666669</v>
       </c>
+      <c r="E24" s="29">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="G24" s="29">
-        <v>0.58333333333333337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F25" s="29">
         <v>0</v>
@@ -22526,10 +22554,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B26" s="29">
-        <v>2.885416666666667</v>
+        <v>3.0937500000000004</v>
       </c>
       <c r="C26" s="29">
         <v>2.395833333333333</v>
@@ -22538,13 +22566,13 @@
         <v>2.083333333333333</v>
       </c>
       <c r="E26" s="29">
-        <v>2.760416666666667</v>
+        <v>2.9687500000000004</v>
       </c>
       <c r="F26" s="29">
         <v>0</v>
       </c>
       <c r="G26" s="29">
-        <v>10.125</v>
+        <v>10.541666666666666</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -22600,7 +22628,7 @@
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Tracking.xlsx
+++ b/Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acaim\Desktop\Ballingo\Drafts-Ballingo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santu\Desktop\tracking\Drafts-Ballingo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F13C8F3-A646-48B6-BD73-2D2230F19A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0820B1D3-2A13-4AFC-9706-2A18F6D54DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TEAM" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId8"/>
+    <pivotCache cacheId="9" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="93">
   <si>
     <t>Tarea</t>
   </si>
@@ -314,6 +314,12 @@
   <si>
     <t>Total general</t>
   </si>
+  <si>
+    <t>Changing pet image depending on player</t>
+  </si>
+  <si>
+    <t>05-mar</t>
+  </si>
 </sst>
 </file>
 
@@ -499,31 +505,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <numFmt numFmtId="164" formatCode="h:mm;@"/>
     </dxf>
@@ -1283,7 +1265,7 @@
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.552083333333333</c:v>
+                  <c:v>2.614583333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.8541666666666665</c:v>
@@ -1292,7 +1274,7 @@
                   <c:v>1.6249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4270833333333335</c:v>
+                  <c:v>2.4895833333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1701,9 +1683,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$40</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$A$2:$A$41</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>(en blanco)</c:v>
@@ -1787,18 +1769,21 @@
                     <c:v>Pet creation</c:v>
                   </c:pt>
                   <c:pt idx="27">
+                    <c:v>Changing pet image depending on player</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
                     <c:v>Market Analysis</c:v>
                   </c:pt>
-                  <c:pt idx="28">
+                  <c:pt idx="29">
                     <c:v>SWOT Analysis</c:v>
                   </c:pt>
-                  <c:pt idx="29">
+                  <c:pt idx="30">
                     <c:v>Stories</c:v>
                   </c:pt>
-                  <c:pt idx="30">
+                  <c:pt idx="31">
                     <c:v>User story estimation and priority</c:v>
                   </c:pt>
-                  <c:pt idx="31">
+                  <c:pt idx="32">
                     <c:v>ProjectLibre</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1812,13 +1797,13 @@
                   <c:pt idx="2">
                     <c:v>Aplication</c:v>
                   </c:pt>
-                  <c:pt idx="27">
+                  <c:pt idx="28">
                     <c:v>R1</c:v>
                   </c:pt>
-                  <c:pt idx="29">
+                  <c:pt idx="30">
                     <c:v>R2</c:v>
                   </c:pt>
-                  <c:pt idx="30">
+                  <c:pt idx="31">
                     <c:v>R3</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1827,10 +1812,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$40</c:f>
+              <c:f>HOURS_TASK_SUBTASK!$B$2:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1913,18 +1898,21 @@
                   <c:v>0.41666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>0.29166666666666663</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0.75000000000000011</c:v>
                 </c:pt>
               </c:numCache>
@@ -2535,9 +2523,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$26</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2605,6 +2593,9 @@
                   <c:v>03-mar</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>05-mar</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2612,10 +2603,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$B$3:$B$26</c:f>
+              <c:f>HOURS_PERSON_DAY!$B$3:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2672,6 +2663,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2699,9 +2693,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$26</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2769,6 +2763,9 @@
                   <c:v>03-mar</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>05-mar</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2776,10 +2773,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$C$3:$C$26</c:f>
+              <c:f>HOURS_PERSON_DAY!$C$3:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -2854,9 +2851,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$26</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -2924,6 +2921,9 @@
                   <c:v>03-mar</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>05-mar</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -2931,10 +2931,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$D$3:$D$26</c:f>
+              <c:f>HOURS_PERSON_DAY!$D$3:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -3000,9 +3000,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$26</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -3070,6 +3070,9 @@
                   <c:v>03-mar</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>05-mar</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -3077,10 +3080,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$E$3:$E$26</c:f>
+              <c:f>HOURS_PERSON_DAY!$E$3:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -3137,6 +3140,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3164,9 +3170,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>HOURS_PERSON_DAY!$A$3:$A$26</c:f>
+              <c:f>HOURS_PERSON_DAY!$A$3:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>04-feb</c:v>
                 </c:pt>
@@ -3234,6 +3240,9 @@
                   <c:v>03-mar</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>05-mar</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>(en blanco)</c:v>
                 </c:pt>
               </c:strCache>
@@ -3241,11 +3250,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>HOURS_PERSON_DAY!$F$3:$F$26</c:f>
+              <c:f>HOURS_PERSON_DAY!$F$3:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>[h]:mm:ss;@</c:formatCode>
-                <c:ptCount val="23"/>
-                <c:pt idx="22">
+                <c:ptCount val="24"/>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3435,13 +3444,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Acaymo Granado Sánchez" refreshedDate="45720.954474999999" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="santi sm" refreshedDate="45721.017974421295" missingItemsLimit="0" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="500" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="TRACKING"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="DATE" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-03-04T00:00:00" count="23">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-02-04T00:00:00" maxDate="2025-03-06T00:00:00" count="24">
         <d v="2025-02-04T00:00:00"/>
         <d v="2025-02-05T00:00:00"/>
         <d v="2025-02-06T00:00:00"/>
@@ -3464,10 +3473,11 @@
         <d v="2025-03-01T00:00:00"/>
         <d v="2025-03-02T00:00:00"/>
         <d v="2025-03-03T00:00:00"/>
+        <d v="2025-03-05T00:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup par="7" base="0">
-        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-03-04T00:00:00"/>
+        <rangePr groupBy="days" startDate="2025-02-04T00:00:00" endDate="2025-03-06T00:00:00"/>
         <groupItems count="368">
           <s v="(en blanco)"/>
           <s v="01-ene"/>
@@ -3836,12 +3846,12 @@
           <s v="29-dic"/>
           <s v="30-dic"/>
           <s v="31-dic"/>
-          <s v="&gt;04/03/2025"/>
+          <s v="&gt;06/03/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="STARTING TIME" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T01:00:00" maxDate="1899-12-30T22:00:00" count="17">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T01:00:00" maxDate="1899-12-30T23:00:00" count="18">
         <d v="1899-12-30T18:00:00"/>
         <d v="1899-12-30T16:00:00"/>
         <d v="1899-12-30T10:00:00"/>
@@ -3858,10 +3868,11 @@
         <d v="1899-12-30T01:00:00"/>
         <d v="1899-12-30T11:00:00"/>
         <d v="1899-12-30T13:00:00"/>
+        <d v="1899-12-30T23:00:00"/>
         <m/>
       </sharedItems>
       <fieldGroup base="1">
-        <rangePr groupBy="hours" startDate="1899-12-30T01:00:00" endDate="1899-12-30T22:00:00"/>
+        <rangePr groupBy="hours" startDate="1899-12-30T01:00:00" endDate="1899-12-30T23:00:00"/>
         <groupItems count="26">
           <s v="(en blanco)"/>
           <s v="0"/>
@@ -3893,7 +3904,7 @@
       </fieldGroup>
     </cacheField>
     <cacheField name="FINAL TIME" numFmtId="164">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T00:00:00" maxDate="1899-12-30T23:30:00" count="16">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="1899-12-30T00:00:00" maxDate="1899-12-30T23:30:00" count="17">
         <d v="1899-12-30T20:00:00"/>
         <d v="1899-12-30T19:00:00"/>
         <d v="1899-12-30T13:00:00"/>
@@ -3909,6 +3920,7 @@
         <d v="1899-12-30T01:00:00"/>
         <d v="1899-12-30T19:15:00"/>
         <d v="1899-12-30T03:00:00"/>
+        <d v="1899-12-30T00:30:00"/>
         <m/>
       </sharedItems>
       <fieldGroup par="8" base="2">
@@ -3990,7 +4002,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="SUBTASK" numFmtId="0">
-      <sharedItems containsBlank="1" count="32">
+      <sharedItems containsBlank="1" count="33">
         <s v="Description"/>
         <s v="Mock - Ups"/>
         <s v="DB Structure Draft Version 1"/>
@@ -4022,6 +4034,7 @@
         <s v="Create trade search and trade working"/>
         <s v="Profile and project fixes"/>
         <s v="Pet creation"/>
+        <s v="Changing pet image depending on player"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -4039,7 +4052,7 @@
     </cacheField>
     <cacheField name="Meses" numFmtId="0" databaseField="0">
       <fieldGroup base="0">
-        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-03-04T00:00:00"/>
+        <rangePr groupBy="months" startDate="2025-02-04T00:00:00" endDate="2025-03-06T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;04/02/2025"/>
           <s v="ene"/>
@@ -4054,7 +4067,7 @@
           <s v="oct"/>
           <s v="nov"/>
           <s v="dic"/>
-          <s v="&gt;04/03/2025"/>
+          <s v="&gt;06/03/2025"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -4862,3743 +4875,3743 @@
     <x v="22"/>
     <x v="16"/>
     <x v="15"/>
-    <x v="5"/>
+    <x v="1"/>
     <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
+    <x v="3"/>
+    <d v="1899-12-30T01:30:00"/>
   </r>
   <r>
     <x v="22"/>
     <x v="16"/>
     <x v="15"/>
-    <x v="5"/>
+    <x v="1"/>
     <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="31"/>
-    <x v="4"/>
-    <s v=""/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="16"/>
-    <x v="15"/>
-    <x v="5"/>
-    <x v="